--- a/timetabling_GA/results/HK1_CT01/TKB_HocKy_PhongHoc.xlsx
+++ b/timetabling_GA/results/HK1_CT01/TKB_HocKy_PhongHoc.xlsx
@@ -516,7 +516,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -608,59 +608,52 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
+          <t>S1
+(07:00-09:00)</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D8" s="7" t="inlineStr"/>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
           <t>S2
 (09:00-11:00)</t>
         </is>
       </c>
-      <c r="B8" s="7" t="inlineStr">
-        <is>
-          <t>LAB02</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
     </row>
@@ -668,135 +661,175 @@
       <c r="A10" s="9" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="7" t="inlineStr"/>
+      <c r="G10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
-      <c r="D11" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
       <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="7" t="inlineStr"/>
-    </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="H11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
           <t>R101</t>
         </is>
       </c>
-      <c r="C12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="C12" s="7" t="inlineStr"/>
+      <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H12" s="7" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
         <is>
-          <t>T2
-(19:30-21:30)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="7" t="inlineStr"/>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="9" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
       <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C15" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr"/>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -815,7 +848,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -907,59 +940,52 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
+          <t>S1
+(07:00-09:00)</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D8" s="7" t="inlineStr"/>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
           <t>S2
 (09:00-11:00)</t>
         </is>
       </c>
-      <c r="B8" s="7" t="inlineStr">
-        <is>
-          <t>LAB02</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
     </row>
@@ -967,135 +993,175 @@
       <c r="A10" s="9" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="7" t="inlineStr"/>
+      <c r="G10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
-      <c r="D11" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
       <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="7" t="inlineStr"/>
-    </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="H11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
           <t>R101</t>
         </is>
       </c>
-      <c r="C12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="C12" s="7" t="inlineStr"/>
+      <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H12" s="7" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
         <is>
-          <t>T2
-(19:30-21:30)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="7" t="inlineStr"/>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="9" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
       <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C15" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr"/>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1114,7 +1180,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1206,59 +1272,52 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
+          <t>S1
+(07:00-09:00)</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D8" s="7" t="inlineStr"/>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
           <t>S2
 (09:00-11:00)</t>
         </is>
       </c>
-      <c r="B8" s="7" t="inlineStr">
-        <is>
-          <t>LAB02</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
     </row>
@@ -1266,135 +1325,175 @@
       <c r="A10" s="9" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="7" t="inlineStr"/>
+      <c r="G10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
-      <c r="D11" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
       <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="7" t="inlineStr"/>
-    </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="H11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
           <t>R101</t>
         </is>
       </c>
-      <c r="C12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="C12" s="7" t="inlineStr"/>
+      <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H12" s="7" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
         <is>
-          <t>T2
-(19:30-21:30)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="7" t="inlineStr"/>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="9" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
       <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C15" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr"/>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1413,7 +1512,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1505,59 +1604,52 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
+          <t>S1
+(07:00-09:00)</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D8" s="7" t="inlineStr"/>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
           <t>S2
 (09:00-11:00)</t>
         </is>
       </c>
-      <c r="B8" s="7" t="inlineStr">
-        <is>
-          <t>LAB02</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
     </row>
@@ -1565,135 +1657,175 @@
       <c r="A10" s="9" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="7" t="inlineStr"/>
+      <c r="G10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
-      <c r="D11" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
       <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="7" t="inlineStr"/>
-    </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="H11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
           <t>R101</t>
         </is>
       </c>
-      <c r="C12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="C12" s="7" t="inlineStr"/>
+      <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H12" s="7" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
         <is>
-          <t>T2
-(19:30-21:30)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="7" t="inlineStr"/>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="9" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
       <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C15" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr"/>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1712,7 +1844,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1804,59 +1936,52 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
+          <t>S1
+(07:00-09:00)</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D8" s="7" t="inlineStr"/>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
           <t>S2
 (09:00-11:00)</t>
         </is>
       </c>
-      <c r="B8" s="7" t="inlineStr">
-        <is>
-          <t>LAB02</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
     </row>
@@ -1864,135 +1989,175 @@
       <c r="A10" s="9" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="7" t="inlineStr"/>
+      <c r="G10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
-      <c r="D11" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
       <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="7" t="inlineStr"/>
-    </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="H11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
           <t>R101</t>
         </is>
       </c>
-      <c r="C12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="C12" s="7" t="inlineStr"/>
+      <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H12" s="7" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
         <is>
-          <t>T2
-(19:30-21:30)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="7" t="inlineStr"/>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="9" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
       <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C15" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr"/>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2011,7 +2176,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2103,59 +2268,52 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
+          <t>S1
+(07:00-09:00)</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D8" s="7" t="inlineStr"/>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
           <t>S2
 (09:00-11:00)</t>
         </is>
       </c>
-      <c r="B8" s="7" t="inlineStr">
-        <is>
-          <t>LAB02</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
     </row>
@@ -2163,135 +2321,175 @@
       <c r="A10" s="9" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="7" t="inlineStr"/>
+      <c r="G10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
-      <c r="D11" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
       <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="7" t="inlineStr"/>
-    </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="H11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
           <t>R101</t>
         </is>
       </c>
-      <c r="C12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="C12" s="7" t="inlineStr"/>
+      <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H12" s="7" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
         <is>
-          <t>T2
-(19:30-21:30)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="7" t="inlineStr"/>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="9" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
       <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C15" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr"/>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2310,7 +2508,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2402,59 +2600,52 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
+          <t>S1
+(07:00-09:00)</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D8" s="7" t="inlineStr"/>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
           <t>S2
 (09:00-11:00)</t>
         </is>
       </c>
-      <c r="B8" s="7" t="inlineStr">
-        <is>
-          <t>LAB02</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
     </row>
@@ -2462,135 +2653,175 @@
       <c r="A10" s="9" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="7" t="inlineStr"/>
+      <c r="G10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
-      <c r="D11" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
       <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="7" t="inlineStr"/>
-    </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="H11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
           <t>R101</t>
         </is>
       </c>
-      <c r="C12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="C12" s="7" t="inlineStr"/>
+      <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H12" s="7" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
         <is>
-          <t>T2
-(19:30-21:30)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="7" t="inlineStr"/>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="9" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
       <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C15" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr"/>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2609,7 +2840,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2701,59 +2932,52 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
+          <t>S1
+(07:00-09:00)</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D8" s="7" t="inlineStr"/>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
           <t>S2
 (09:00-11:00)</t>
         </is>
       </c>
-      <c r="B8" s="7" t="inlineStr">
-        <is>
-          <t>LAB02</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
     </row>
@@ -2761,135 +2985,175 @@
       <c r="A10" s="9" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="7" t="inlineStr"/>
+      <c r="G10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
-      <c r="D11" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
       <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="7" t="inlineStr"/>
-    </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="H11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
           <t>R101</t>
         </is>
       </c>
-      <c r="C12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="C12" s="7" t="inlineStr"/>
+      <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H12" s="7" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
         <is>
-          <t>T2
-(19:30-21:30)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="7" t="inlineStr"/>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="9" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
       <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C15" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr"/>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2908,7 +3172,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3000,59 +3264,52 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
+          <t>S1
+(07:00-09:00)</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D8" s="7" t="inlineStr"/>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
           <t>S2
 (09:00-11:00)</t>
         </is>
       </c>
-      <c r="B8" s="7" t="inlineStr">
-        <is>
-          <t>LAB02</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
     </row>
@@ -3060,135 +3317,175 @@
       <c r="A10" s="9" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="7" t="inlineStr"/>
+      <c r="G10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
-      <c r="D11" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
       <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="7" t="inlineStr"/>
-    </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="H11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
           <t>R101</t>
         </is>
       </c>
-      <c r="C12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="C12" s="7" t="inlineStr"/>
+      <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H12" s="7" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
         <is>
-          <t>T2
-(19:30-21:30)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="7" t="inlineStr"/>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="9" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
       <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C15" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr"/>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3207,7 +3504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3299,59 +3596,52 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
+          <t>S1
+(07:00-09:00)</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D8" s="7" t="inlineStr"/>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
           <t>S2
 (09:00-11:00)</t>
         </is>
       </c>
-      <c r="B8" s="7" t="inlineStr">
-        <is>
-          <t>LAB02</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
     </row>
@@ -3359,135 +3649,175 @@
       <c r="A10" s="9" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="7" t="inlineStr"/>
+      <c r="G10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
-      <c r="D11" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
       <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="7" t="inlineStr"/>
-    </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="H11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
           <t>R101</t>
         </is>
       </c>
-      <c r="C12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="C12" s="7" t="inlineStr"/>
+      <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H12" s="7" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
         <is>
-          <t>T2
-(19:30-21:30)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="7" t="inlineStr"/>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="9" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
       <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C15" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr"/>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3506,7 +3836,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3598,59 +3928,52 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
+          <t>S1
+(07:00-09:00)</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D8" s="7" t="inlineStr"/>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
           <t>S2
 (09:00-11:00)</t>
         </is>
       </c>
-      <c r="B8" s="7" t="inlineStr">
-        <is>
-          <t>LAB02</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
     </row>
@@ -3658,135 +3981,175 @@
       <c r="A10" s="9" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="7" t="inlineStr"/>
+      <c r="G10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
-      <c r="D11" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
       <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="7" t="inlineStr"/>
-    </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="H11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
           <t>R101</t>
         </is>
       </c>
-      <c r="C12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="C12" s="7" t="inlineStr"/>
+      <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H12" s="7" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
         <is>
-          <t>T2
-(19:30-21:30)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="7" t="inlineStr"/>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="9" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
       <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C15" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr"/>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3805,7 +4168,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3897,59 +4260,52 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
+          <t>S1
+(07:00-09:00)</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D8" s="7" t="inlineStr"/>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
           <t>S2
 (09:00-11:00)</t>
         </is>
       </c>
-      <c r="B8" s="7" t="inlineStr">
-        <is>
-          <t>LAB02</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
     </row>
@@ -3957,135 +4313,175 @@
       <c r="A10" s="9" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="7" t="inlineStr"/>
+      <c r="G10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
-      <c r="D11" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
       <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="7" t="inlineStr"/>
-    </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="H11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
           <t>R101</t>
         </is>
       </c>
-      <c r="C12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="C12" s="7" t="inlineStr"/>
+      <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H12" s="7" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
         <is>
-          <t>T2
-(19:30-21:30)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="7" t="inlineStr"/>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="9" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
       <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C15" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr"/>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4104,7 +4500,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4196,59 +4592,52 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
+          <t>S1
+(07:00-09:00)</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D8" s="7" t="inlineStr"/>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
           <t>S2
 (09:00-11:00)</t>
         </is>
       </c>
-      <c r="B8" s="7" t="inlineStr">
-        <is>
-          <t>LAB02</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
     </row>
@@ -4256,135 +4645,175 @@
       <c r="A10" s="9" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="7" t="inlineStr"/>
+      <c r="G10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
-      <c r="D11" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
       <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="7" t="inlineStr"/>
-    </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="H11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
           <t>R101</t>
         </is>
       </c>
-      <c r="C12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="C12" s="7" t="inlineStr"/>
+      <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H12" s="7" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
         <is>
-          <t>T2
-(19:30-21:30)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="7" t="inlineStr"/>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="9" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
       <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C15" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr"/>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4403,7 +4832,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4495,59 +4924,52 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
+          <t>S1
+(07:00-09:00)</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D8" s="7" t="inlineStr"/>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
           <t>S2
 (09:00-11:00)</t>
         </is>
       </c>
-      <c r="B8" s="7" t="inlineStr">
-        <is>
-          <t>LAB02</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
     </row>
@@ -4555,135 +4977,175 @@
       <c r="A10" s="9" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="7" t="inlineStr"/>
+      <c r="G10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
-      <c r="D11" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
       <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="7" t="inlineStr"/>
-    </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="H11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
           <t>R101</t>
         </is>
       </c>
-      <c r="C12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="C12" s="7" t="inlineStr"/>
+      <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H12" s="7" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
         <is>
-          <t>T2
-(19:30-21:30)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="7" t="inlineStr"/>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="9" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
       <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C15" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr"/>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4702,7 +5164,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4794,59 +5256,52 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
+          <t>S1
+(07:00-09:00)</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="D8" s="7" t="inlineStr"/>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
           <t>S2
 (09:00-11:00)</t>
         </is>
       </c>
-      <c r="B8" s="7" t="inlineStr">
-        <is>
-          <t>LAB02</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="inlineStr"/>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="F8" s="7" t="inlineStr"/>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
     </row>
@@ -4854,135 +5309,175 @@
       <c r="A10" s="9" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="7" t="inlineStr"/>
+      <c r="G10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>C2
-(15:00-17:00)</t>
+          <t>C1
+(13:00-15:00)</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
-      <c r="D11" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
       <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="7" t="inlineStr"/>
-    </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+      <c r="H11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
           <t>R101</t>
         </is>
       </c>
-      <c r="C12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="C12" s="7" t="inlineStr"/>
+      <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H12" s="7" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
         <is>
-          <t>T2
-(19:30-21:30)</t>
+          <t>C2
+(15:00-17:00)</t>
         </is>
       </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="7" t="inlineStr"/>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="7" t="inlineStr"/>
-      <c r="G13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="9" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
       <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="E14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C15" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>R101</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr"/>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/timetabling_GA/results/HK1_CT01/TKB_HocKy_PhongHoc.xlsx
+++ b/timetabling_GA/results/HK1_CT01/TKB_HocKy_PhongHoc.xlsx
@@ -84,14 +84,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFE699"/>
-        <bgColor rgb="00FFE699"/>
+        <fgColor rgb="00BDD7EE"/>
+        <bgColor rgb="00BDD7EE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00BDD7EE"/>
-        <bgColor rgb="00BDD7EE"/>
+        <fgColor rgb="00FFE699"/>
+        <bgColor rgb="00FFE699"/>
       </patternFill>
     </fill>
   </fills>
@@ -147,10 +147,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -516,7 +516,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -614,22 +614,29 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
-        </is>
-      </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
@@ -640,43 +647,43 @@
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>LAB03</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="8" t="inlineStr">
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="9" t="inlineStr">
         <is>
           <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="9" t="n"/>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
 Môn: Lập trình cơ bản
 GV: Lê Văn C
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
@@ -687,63 +694,58 @@
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
 Môn: Lập trình cơ bản
 GV: Lê Văn C
 (Thực hành)</t>
         </is>
       </c>
+      <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="9" t="n"/>
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>LAB03</t>
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr"/>
       <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="10" t="inlineStr">
+      <c r="G12" s="9" t="inlineStr">
         <is>
           <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
         </is>
       </c>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+    <row r="13">
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
       <c r="D13" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="E13" s="7" t="inlineStr"/>
@@ -751,76 +753,226 @@
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14">
-      <c r="A14" s="9" t="n"/>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
+      <c r="D14" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
 Môn: Lập trình cơ bản
 GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
+(Thực hành)</t>
         </is>
       </c>
       <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
     </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+    <row r="15">
+      <c r="A15" s="10" t="n"/>
       <c r="B15" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr"/>
       <c r="D15" s="7" t="inlineStr"/>
       <c r="E15" s="7" t="inlineStr"/>
       <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="7" t="inlineStr"/>
+      <c r="G15" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H15" s="7" t="inlineStr"/>
     </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="6" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="10" t="n"/>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="7" t="inlineStr"/>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="inlineStr"/>
+      <c r="D17" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E17" s="7" t="inlineStr"/>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="7" t="inlineStr"/>
+      <c r="H17" s="7" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="10" t="n"/>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D18" s="7" t="inlineStr"/>
+      <c r="E18" s="7" t="inlineStr"/>
+      <c r="F18" s="7" t="inlineStr"/>
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="10" t="n"/>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D19" s="7" t="inlineStr"/>
+      <c r="E19" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F19" s="7" t="inlineStr"/>
+      <c r="G19" s="7" t="inlineStr"/>
+      <c r="H19" s="7" t="inlineStr"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="6" t="inlineStr">
         <is>
           <t>T2
 (19:30-21:30)</t>
         </is>
       </c>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="10" t="inlineStr">
+      <c r="B20" s="7" t="inlineStr">
+        <is>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C20" s="7" t="inlineStr"/>
+      <c r="D20" s="7" t="inlineStr"/>
+      <c r="E20" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F20" s="7" t="inlineStr"/>
+      <c r="G20" s="7" t="inlineStr"/>
+      <c r="H20" s="7" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="10" t="n"/>
+      <c r="B21" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C21" s="7" t="inlineStr"/>
+      <c r="D21" s="7" t="inlineStr"/>
+      <c r="E21" s="7" t="inlineStr"/>
+      <c r="F21" s="7" t="inlineStr"/>
+      <c r="G21" s="7" t="inlineStr"/>
+      <c r="H21" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="10" t="n"/>
+      <c r="B22" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C22" s="7" t="inlineStr"/>
+      <c r="D22" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL01
 Môn: Lập trình cơ bản
@@ -828,8 +980,10 @@
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="G16" s="7" t="inlineStr"/>
-      <c r="H16" s="7" t="inlineStr"/>
+      <c r="E22" s="7" t="inlineStr"/>
+      <c r="F22" s="7" t="inlineStr"/>
+      <c r="G22" s="7" t="inlineStr"/>
+      <c r="H22" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -848,7 +1002,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -946,22 +1100,29 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
-        </is>
-      </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
@@ -972,43 +1133,43 @@
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>LAB03</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="8" t="inlineStr">
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="9" t="inlineStr">
         <is>
           <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="9" t="n"/>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
 Môn: Lập trình cơ bản
 GV: Lê Văn C
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
@@ -1019,63 +1180,58 @@
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
 Môn: Lập trình cơ bản
 GV: Lê Văn C
 (Thực hành)</t>
         </is>
       </c>
+      <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="9" t="n"/>
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>LAB03</t>
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr"/>
       <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="10" t="inlineStr">
+      <c r="G12" s="9" t="inlineStr">
         <is>
           <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
         </is>
       </c>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+    <row r="13">
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
       <c r="D13" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="E13" s="7" t="inlineStr"/>
@@ -1083,76 +1239,226 @@
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14">
-      <c r="A14" s="9" t="n"/>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
+      <c r="D14" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
 Môn: Lập trình cơ bản
 GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
+(Thực hành)</t>
         </is>
       </c>
       <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
     </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+    <row r="15">
+      <c r="A15" s="10" t="n"/>
       <c r="B15" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr"/>
       <c r="D15" s="7" t="inlineStr"/>
       <c r="E15" s="7" t="inlineStr"/>
       <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="7" t="inlineStr"/>
+      <c r="G15" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H15" s="7" t="inlineStr"/>
     </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="6" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="10" t="n"/>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="7" t="inlineStr"/>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="inlineStr"/>
+      <c r="D17" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E17" s="7" t="inlineStr"/>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="7" t="inlineStr"/>
+      <c r="H17" s="7" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="10" t="n"/>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D18" s="7" t="inlineStr"/>
+      <c r="E18" s="7" t="inlineStr"/>
+      <c r="F18" s="7" t="inlineStr"/>
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="10" t="n"/>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D19" s="7" t="inlineStr"/>
+      <c r="E19" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F19" s="7" t="inlineStr"/>
+      <c r="G19" s="7" t="inlineStr"/>
+      <c r="H19" s="7" t="inlineStr"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="6" t="inlineStr">
         <is>
           <t>T2
 (19:30-21:30)</t>
         </is>
       </c>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="10" t="inlineStr">
+      <c r="B20" s="7" t="inlineStr">
+        <is>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C20" s="7" t="inlineStr"/>
+      <c r="D20" s="7" t="inlineStr"/>
+      <c r="E20" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F20" s="7" t="inlineStr"/>
+      <c r="G20" s="7" t="inlineStr"/>
+      <c r="H20" s="7" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="10" t="n"/>
+      <c r="B21" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C21" s="7" t="inlineStr"/>
+      <c r="D21" s="7" t="inlineStr"/>
+      <c r="E21" s="7" t="inlineStr"/>
+      <c r="F21" s="7" t="inlineStr"/>
+      <c r="G21" s="7" t="inlineStr"/>
+      <c r="H21" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="10" t="n"/>
+      <c r="B22" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C22" s="7" t="inlineStr"/>
+      <c r="D22" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL01
 Môn: Lập trình cơ bản
@@ -1160,8 +1466,10 @@
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="G16" s="7" t="inlineStr"/>
-      <c r="H16" s="7" t="inlineStr"/>
+      <c r="E22" s="7" t="inlineStr"/>
+      <c r="F22" s="7" t="inlineStr"/>
+      <c r="G22" s="7" t="inlineStr"/>
+      <c r="H22" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1180,7 +1488,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1278,22 +1586,29 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
-        </is>
-      </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
@@ -1304,43 +1619,43 @@
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>LAB03</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="8" t="inlineStr">
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="9" t="inlineStr">
         <is>
           <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="9" t="n"/>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
 Môn: Lập trình cơ bản
 GV: Lê Văn C
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
@@ -1351,63 +1666,58 @@
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
 Môn: Lập trình cơ bản
 GV: Lê Văn C
 (Thực hành)</t>
         </is>
       </c>
+      <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="9" t="n"/>
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>LAB03</t>
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr"/>
       <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="10" t="inlineStr">
+      <c r="G12" s="9" t="inlineStr">
         <is>
           <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
         </is>
       </c>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+    <row r="13">
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
       <c r="D13" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="E13" s="7" t="inlineStr"/>
@@ -1415,76 +1725,226 @@
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14">
-      <c r="A14" s="9" t="n"/>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
+      <c r="D14" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
 Môn: Lập trình cơ bản
 GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
+(Thực hành)</t>
         </is>
       </c>
       <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
     </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+    <row r="15">
+      <c r="A15" s="10" t="n"/>
       <c r="B15" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr"/>
       <c r="D15" s="7" t="inlineStr"/>
       <c r="E15" s="7" t="inlineStr"/>
       <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="7" t="inlineStr"/>
+      <c r="G15" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H15" s="7" t="inlineStr"/>
     </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="6" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="10" t="n"/>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="7" t="inlineStr"/>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="inlineStr"/>
+      <c r="D17" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E17" s="7" t="inlineStr"/>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="7" t="inlineStr"/>
+      <c r="H17" s="7" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="10" t="n"/>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D18" s="7" t="inlineStr"/>
+      <c r="E18" s="7" t="inlineStr"/>
+      <c r="F18" s="7" t="inlineStr"/>
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="10" t="n"/>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D19" s="7" t="inlineStr"/>
+      <c r="E19" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F19" s="7" t="inlineStr"/>
+      <c r="G19" s="7" t="inlineStr"/>
+      <c r="H19" s="7" t="inlineStr"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="6" t="inlineStr">
         <is>
           <t>T2
 (19:30-21:30)</t>
         </is>
       </c>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="10" t="inlineStr">
+      <c r="B20" s="7" t="inlineStr">
+        <is>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C20" s="7" t="inlineStr"/>
+      <c r="D20" s="7" t="inlineStr"/>
+      <c r="E20" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F20" s="7" t="inlineStr"/>
+      <c r="G20" s="7" t="inlineStr"/>
+      <c r="H20" s="7" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="10" t="n"/>
+      <c r="B21" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C21" s="7" t="inlineStr"/>
+      <c r="D21" s="7" t="inlineStr"/>
+      <c r="E21" s="7" t="inlineStr"/>
+      <c r="F21" s="7" t="inlineStr"/>
+      <c r="G21" s="7" t="inlineStr"/>
+      <c r="H21" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="10" t="n"/>
+      <c r="B22" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C22" s="7" t="inlineStr"/>
+      <c r="D22" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL01
 Môn: Lập trình cơ bản
@@ -1492,8 +1952,10 @@
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="G16" s="7" t="inlineStr"/>
-      <c r="H16" s="7" t="inlineStr"/>
+      <c r="E22" s="7" t="inlineStr"/>
+      <c r="F22" s="7" t="inlineStr"/>
+      <c r="G22" s="7" t="inlineStr"/>
+      <c r="H22" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1512,7 +1974,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1610,22 +2072,29 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
-        </is>
-      </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
@@ -1636,43 +2105,43 @@
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>LAB03</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="8" t="inlineStr">
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="9" t="inlineStr">
         <is>
           <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="9" t="n"/>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
 Môn: Lập trình cơ bản
 GV: Lê Văn C
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
@@ -1683,63 +2152,58 @@
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
 Môn: Lập trình cơ bản
 GV: Lê Văn C
 (Thực hành)</t>
         </is>
       </c>
+      <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="9" t="n"/>
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>LAB03</t>
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr"/>
       <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="10" t="inlineStr">
+      <c r="G12" s="9" t="inlineStr">
         <is>
           <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
         </is>
       </c>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+    <row r="13">
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
       <c r="D13" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="E13" s="7" t="inlineStr"/>
@@ -1747,76 +2211,226 @@
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14">
-      <c r="A14" s="9" t="n"/>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
+      <c r="D14" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
 Môn: Lập trình cơ bản
 GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
+(Thực hành)</t>
         </is>
       </c>
       <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
     </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+    <row r="15">
+      <c r="A15" s="10" t="n"/>
       <c r="B15" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr"/>
       <c r="D15" s="7" t="inlineStr"/>
       <c r="E15" s="7" t="inlineStr"/>
       <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="7" t="inlineStr"/>
+      <c r="G15" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H15" s="7" t="inlineStr"/>
     </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="6" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="10" t="n"/>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="7" t="inlineStr"/>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="inlineStr"/>
+      <c r="D17" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E17" s="7" t="inlineStr"/>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="7" t="inlineStr"/>
+      <c r="H17" s="7" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="10" t="n"/>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D18" s="7" t="inlineStr"/>
+      <c r="E18" s="7" t="inlineStr"/>
+      <c r="F18" s="7" t="inlineStr"/>
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="10" t="n"/>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D19" s="7" t="inlineStr"/>
+      <c r="E19" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F19" s="7" t="inlineStr"/>
+      <c r="G19" s="7" t="inlineStr"/>
+      <c r="H19" s="7" t="inlineStr"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="6" t="inlineStr">
         <is>
           <t>T2
 (19:30-21:30)</t>
         </is>
       </c>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="10" t="inlineStr">
+      <c r="B20" s="7" t="inlineStr">
+        <is>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C20" s="7" t="inlineStr"/>
+      <c r="D20" s="7" t="inlineStr"/>
+      <c r="E20" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F20" s="7" t="inlineStr"/>
+      <c r="G20" s="7" t="inlineStr"/>
+      <c r="H20" s="7" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="10" t="n"/>
+      <c r="B21" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C21" s="7" t="inlineStr"/>
+      <c r="D21" s="7" t="inlineStr"/>
+      <c r="E21" s="7" t="inlineStr"/>
+      <c r="F21" s="7" t="inlineStr"/>
+      <c r="G21" s="7" t="inlineStr"/>
+      <c r="H21" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="10" t="n"/>
+      <c r="B22" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C22" s="7" t="inlineStr"/>
+      <c r="D22" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL01
 Môn: Lập trình cơ bản
@@ -1824,8 +2438,10 @@
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="G16" s="7" t="inlineStr"/>
-      <c r="H16" s="7" t="inlineStr"/>
+      <c r="E22" s="7" t="inlineStr"/>
+      <c r="F22" s="7" t="inlineStr"/>
+      <c r="G22" s="7" t="inlineStr"/>
+      <c r="H22" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1844,7 +2460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1942,22 +2558,29 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
-        </is>
-      </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
@@ -1968,43 +2591,43 @@
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>LAB03</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="8" t="inlineStr">
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="9" t="inlineStr">
         <is>
           <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="9" t="n"/>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
 Môn: Lập trình cơ bản
 GV: Lê Văn C
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
@@ -2015,63 +2638,58 @@
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
 Môn: Lập trình cơ bản
 GV: Lê Văn C
 (Thực hành)</t>
         </is>
       </c>
+      <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="9" t="n"/>
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>LAB03</t>
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr"/>
       <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="10" t="inlineStr">
+      <c r="G12" s="9" t="inlineStr">
         <is>
           <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
         </is>
       </c>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+    <row r="13">
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
       <c r="D13" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="E13" s="7" t="inlineStr"/>
@@ -2079,76 +2697,226 @@
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14">
-      <c r="A14" s="9" t="n"/>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
+      <c r="D14" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
 Môn: Lập trình cơ bản
 GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
+(Thực hành)</t>
         </is>
       </c>
       <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
     </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+    <row r="15">
+      <c r="A15" s="10" t="n"/>
       <c r="B15" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr"/>
       <c r="D15" s="7" t="inlineStr"/>
       <c r="E15" s="7" t="inlineStr"/>
       <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="7" t="inlineStr"/>
+      <c r="G15" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H15" s="7" t="inlineStr"/>
     </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="6" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="10" t="n"/>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="7" t="inlineStr"/>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="inlineStr"/>
+      <c r="D17" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E17" s="7" t="inlineStr"/>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="7" t="inlineStr"/>
+      <c r="H17" s="7" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="10" t="n"/>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D18" s="7" t="inlineStr"/>
+      <c r="E18" s="7" t="inlineStr"/>
+      <c r="F18" s="7" t="inlineStr"/>
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="10" t="n"/>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D19" s="7" t="inlineStr"/>
+      <c r="E19" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F19" s="7" t="inlineStr"/>
+      <c r="G19" s="7" t="inlineStr"/>
+      <c r="H19" s="7" t="inlineStr"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="6" t="inlineStr">
         <is>
           <t>T2
 (19:30-21:30)</t>
         </is>
       </c>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="10" t="inlineStr">
+      <c r="B20" s="7" t="inlineStr">
+        <is>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C20" s="7" t="inlineStr"/>
+      <c r="D20" s="7" t="inlineStr"/>
+      <c r="E20" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F20" s="7" t="inlineStr"/>
+      <c r="G20" s="7" t="inlineStr"/>
+      <c r="H20" s="7" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="10" t="n"/>
+      <c r="B21" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C21" s="7" t="inlineStr"/>
+      <c r="D21" s="7" t="inlineStr"/>
+      <c r="E21" s="7" t="inlineStr"/>
+      <c r="F21" s="7" t="inlineStr"/>
+      <c r="G21" s="7" t="inlineStr"/>
+      <c r="H21" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="10" t="n"/>
+      <c r="B22" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C22" s="7" t="inlineStr"/>
+      <c r="D22" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL01
 Môn: Lập trình cơ bản
@@ -2156,8 +2924,10 @@
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="G16" s="7" t="inlineStr"/>
-      <c r="H16" s="7" t="inlineStr"/>
+      <c r="E22" s="7" t="inlineStr"/>
+      <c r="F22" s="7" t="inlineStr"/>
+      <c r="G22" s="7" t="inlineStr"/>
+      <c r="H22" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2176,7 +2946,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2274,22 +3044,29 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
-        </is>
-      </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
@@ -2300,43 +3077,43 @@
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>LAB03</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="8" t="inlineStr">
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="9" t="inlineStr">
         <is>
           <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="9" t="n"/>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
 Môn: Lập trình cơ bản
 GV: Lê Văn C
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
@@ -2347,63 +3124,58 @@
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
 Môn: Lập trình cơ bản
 GV: Lê Văn C
 (Thực hành)</t>
         </is>
       </c>
+      <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="9" t="n"/>
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>LAB03</t>
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr"/>
       <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="10" t="inlineStr">
+      <c r="G12" s="9" t="inlineStr">
         <is>
           <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
         </is>
       </c>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+    <row r="13">
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
       <c r="D13" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="E13" s="7" t="inlineStr"/>
@@ -2411,76 +3183,226 @@
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14">
-      <c r="A14" s="9" t="n"/>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
+      <c r="D14" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
 Môn: Lập trình cơ bản
 GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
+(Thực hành)</t>
         </is>
       </c>
       <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
     </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+    <row r="15">
+      <c r="A15" s="10" t="n"/>
       <c r="B15" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr"/>
       <c r="D15" s="7" t="inlineStr"/>
       <c r="E15" s="7" t="inlineStr"/>
       <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="7" t="inlineStr"/>
+      <c r="G15" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H15" s="7" t="inlineStr"/>
     </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="6" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="10" t="n"/>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="7" t="inlineStr"/>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="inlineStr"/>
+      <c r="D17" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E17" s="7" t="inlineStr"/>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="7" t="inlineStr"/>
+      <c r="H17" s="7" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="10" t="n"/>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D18" s="7" t="inlineStr"/>
+      <c r="E18" s="7" t="inlineStr"/>
+      <c r="F18" s="7" t="inlineStr"/>
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="10" t="n"/>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D19" s="7" t="inlineStr"/>
+      <c r="E19" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F19" s="7" t="inlineStr"/>
+      <c r="G19" s="7" t="inlineStr"/>
+      <c r="H19" s="7" t="inlineStr"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="6" t="inlineStr">
         <is>
           <t>T2
 (19:30-21:30)</t>
         </is>
       </c>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="10" t="inlineStr">
+      <c r="B20" s="7" t="inlineStr">
+        <is>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C20" s="7" t="inlineStr"/>
+      <c r="D20" s="7" t="inlineStr"/>
+      <c r="E20" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F20" s="7" t="inlineStr"/>
+      <c r="G20" s="7" t="inlineStr"/>
+      <c r="H20" s="7" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="10" t="n"/>
+      <c r="B21" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C21" s="7" t="inlineStr"/>
+      <c r="D21" s="7" t="inlineStr"/>
+      <c r="E21" s="7" t="inlineStr"/>
+      <c r="F21" s="7" t="inlineStr"/>
+      <c r="G21" s="7" t="inlineStr"/>
+      <c r="H21" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="10" t="n"/>
+      <c r="B22" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C22" s="7" t="inlineStr"/>
+      <c r="D22" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL01
 Môn: Lập trình cơ bản
@@ -2488,8 +3410,10 @@
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="G16" s="7" t="inlineStr"/>
-      <c r="H16" s="7" t="inlineStr"/>
+      <c r="E22" s="7" t="inlineStr"/>
+      <c r="F22" s="7" t="inlineStr"/>
+      <c r="G22" s="7" t="inlineStr"/>
+      <c r="H22" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2508,7 +3432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2606,22 +3530,29 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
-        </is>
-      </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
@@ -2632,43 +3563,43 @@
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>LAB03</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="8" t="inlineStr">
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="9" t="inlineStr">
         <is>
           <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="9" t="n"/>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
 Môn: Lập trình cơ bản
 GV: Lê Văn C
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
@@ -2679,63 +3610,58 @@
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
 Môn: Lập trình cơ bản
 GV: Lê Văn C
 (Thực hành)</t>
         </is>
       </c>
+      <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="9" t="n"/>
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>LAB03</t>
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr"/>
       <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="10" t="inlineStr">
+      <c r="G12" s="9" t="inlineStr">
         <is>
           <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
         </is>
       </c>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+    <row r="13">
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
       <c r="D13" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="E13" s="7" t="inlineStr"/>
@@ -2743,76 +3669,226 @@
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14">
-      <c r="A14" s="9" t="n"/>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
+      <c r="D14" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
 Môn: Lập trình cơ bản
 GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
+(Thực hành)</t>
         </is>
       </c>
       <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
     </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+    <row r="15">
+      <c r="A15" s="10" t="n"/>
       <c r="B15" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr"/>
       <c r="D15" s="7" t="inlineStr"/>
       <c r="E15" s="7" t="inlineStr"/>
       <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="7" t="inlineStr"/>
+      <c r="G15" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H15" s="7" t="inlineStr"/>
     </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="6" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="10" t="n"/>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="7" t="inlineStr"/>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="inlineStr"/>
+      <c r="D17" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E17" s="7" t="inlineStr"/>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="7" t="inlineStr"/>
+      <c r="H17" s="7" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="10" t="n"/>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D18" s="7" t="inlineStr"/>
+      <c r="E18" s="7" t="inlineStr"/>
+      <c r="F18" s="7" t="inlineStr"/>
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="10" t="n"/>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D19" s="7" t="inlineStr"/>
+      <c r="E19" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F19" s="7" t="inlineStr"/>
+      <c r="G19" s="7" t="inlineStr"/>
+      <c r="H19" s="7" t="inlineStr"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="6" t="inlineStr">
         <is>
           <t>T2
 (19:30-21:30)</t>
         </is>
       </c>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="10" t="inlineStr">
+      <c r="B20" s="7" t="inlineStr">
+        <is>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C20" s="7" t="inlineStr"/>
+      <c r="D20" s="7" t="inlineStr"/>
+      <c r="E20" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F20" s="7" t="inlineStr"/>
+      <c r="G20" s="7" t="inlineStr"/>
+      <c r="H20" s="7" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="10" t="n"/>
+      <c r="B21" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C21" s="7" t="inlineStr"/>
+      <c r="D21" s="7" t="inlineStr"/>
+      <c r="E21" s="7" t="inlineStr"/>
+      <c r="F21" s="7" t="inlineStr"/>
+      <c r="G21" s="7" t="inlineStr"/>
+      <c r="H21" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="10" t="n"/>
+      <c r="B22" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C22" s="7" t="inlineStr"/>
+      <c r="D22" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL01
 Môn: Lập trình cơ bản
@@ -2820,8 +3896,10 @@
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="G16" s="7" t="inlineStr"/>
-      <c r="H16" s="7" t="inlineStr"/>
+      <c r="E22" s="7" t="inlineStr"/>
+      <c r="F22" s="7" t="inlineStr"/>
+      <c r="G22" s="7" t="inlineStr"/>
+      <c r="H22" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2840,7 +3918,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2938,22 +4016,29 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
-        </is>
-      </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
@@ -2964,43 +4049,43 @@
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>LAB03</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="8" t="inlineStr">
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="9" t="inlineStr">
         <is>
           <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="9" t="n"/>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
 Môn: Lập trình cơ bản
 GV: Lê Văn C
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
@@ -3011,63 +4096,58 @@
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
 Môn: Lập trình cơ bản
 GV: Lê Văn C
 (Thực hành)</t>
         </is>
       </c>
+      <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="9" t="n"/>
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>LAB03</t>
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr"/>
       <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="10" t="inlineStr">
+      <c r="G12" s="9" t="inlineStr">
         <is>
           <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
         </is>
       </c>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+    <row r="13">
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
       <c r="D13" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="E13" s="7" t="inlineStr"/>
@@ -3075,76 +4155,226 @@
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14">
-      <c r="A14" s="9" t="n"/>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
+      <c r="D14" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
 Môn: Lập trình cơ bản
 GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
+(Thực hành)</t>
         </is>
       </c>
       <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
     </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+    <row r="15">
+      <c r="A15" s="10" t="n"/>
       <c r="B15" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr"/>
       <c r="D15" s="7" t="inlineStr"/>
       <c r="E15" s="7" t="inlineStr"/>
       <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="7" t="inlineStr"/>
+      <c r="G15" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H15" s="7" t="inlineStr"/>
     </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="6" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="10" t="n"/>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="7" t="inlineStr"/>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="inlineStr"/>
+      <c r="D17" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E17" s="7" t="inlineStr"/>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="7" t="inlineStr"/>
+      <c r="H17" s="7" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="10" t="n"/>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D18" s="7" t="inlineStr"/>
+      <c r="E18" s="7" t="inlineStr"/>
+      <c r="F18" s="7" t="inlineStr"/>
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="10" t="n"/>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D19" s="7" t="inlineStr"/>
+      <c r="E19" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F19" s="7" t="inlineStr"/>
+      <c r="G19" s="7" t="inlineStr"/>
+      <c r="H19" s="7" t="inlineStr"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="6" t="inlineStr">
         <is>
           <t>T2
 (19:30-21:30)</t>
         </is>
       </c>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="10" t="inlineStr">
+      <c r="B20" s="7" t="inlineStr">
+        <is>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C20" s="7" t="inlineStr"/>
+      <c r="D20" s="7" t="inlineStr"/>
+      <c r="E20" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F20" s="7" t="inlineStr"/>
+      <c r="G20" s="7" t="inlineStr"/>
+      <c r="H20" s="7" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="10" t="n"/>
+      <c r="B21" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C21" s="7" t="inlineStr"/>
+      <c r="D21" s="7" t="inlineStr"/>
+      <c r="E21" s="7" t="inlineStr"/>
+      <c r="F21" s="7" t="inlineStr"/>
+      <c r="G21" s="7" t="inlineStr"/>
+      <c r="H21" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="10" t="n"/>
+      <c r="B22" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C22" s="7" t="inlineStr"/>
+      <c r="D22" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL01
 Môn: Lập trình cơ bản
@@ -3152,8 +4382,10 @@
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="G16" s="7" t="inlineStr"/>
-      <c r="H16" s="7" t="inlineStr"/>
+      <c r="E22" s="7" t="inlineStr"/>
+      <c r="F22" s="7" t="inlineStr"/>
+      <c r="G22" s="7" t="inlineStr"/>
+      <c r="H22" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3172,7 +4404,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3270,22 +4502,29 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
-        </is>
-      </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
@@ -3296,43 +4535,43 @@
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>LAB03</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="8" t="inlineStr">
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="9" t="inlineStr">
         <is>
           <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="9" t="n"/>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
 Môn: Lập trình cơ bản
 GV: Lê Văn C
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
@@ -3343,63 +4582,58 @@
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
 Môn: Lập trình cơ bản
 GV: Lê Văn C
 (Thực hành)</t>
         </is>
       </c>
+      <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="9" t="n"/>
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>LAB03</t>
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr"/>
       <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="10" t="inlineStr">
+      <c r="G12" s="9" t="inlineStr">
         <is>
           <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
         </is>
       </c>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+    <row r="13">
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
       <c r="D13" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="E13" s="7" t="inlineStr"/>
@@ -3407,76 +4641,226 @@
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14">
-      <c r="A14" s="9" t="n"/>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
+      <c r="D14" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
 Môn: Lập trình cơ bản
 GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
+(Thực hành)</t>
         </is>
       </c>
       <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
     </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+    <row r="15">
+      <c r="A15" s="10" t="n"/>
       <c r="B15" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr"/>
       <c r="D15" s="7" t="inlineStr"/>
       <c r="E15" s="7" t="inlineStr"/>
       <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="7" t="inlineStr"/>
+      <c r="G15" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H15" s="7" t="inlineStr"/>
     </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="6" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="10" t="n"/>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="7" t="inlineStr"/>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="inlineStr"/>
+      <c r="D17" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E17" s="7" t="inlineStr"/>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="7" t="inlineStr"/>
+      <c r="H17" s="7" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="10" t="n"/>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D18" s="7" t="inlineStr"/>
+      <c r="E18" s="7" t="inlineStr"/>
+      <c r="F18" s="7" t="inlineStr"/>
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="10" t="n"/>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D19" s="7" t="inlineStr"/>
+      <c r="E19" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F19" s="7" t="inlineStr"/>
+      <c r="G19" s="7" t="inlineStr"/>
+      <c r="H19" s="7" t="inlineStr"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="6" t="inlineStr">
         <is>
           <t>T2
 (19:30-21:30)</t>
         </is>
       </c>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="10" t="inlineStr">
+      <c r="B20" s="7" t="inlineStr">
+        <is>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C20" s="7" t="inlineStr"/>
+      <c r="D20" s="7" t="inlineStr"/>
+      <c r="E20" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F20" s="7" t="inlineStr"/>
+      <c r="G20" s="7" t="inlineStr"/>
+      <c r="H20" s="7" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="10" t="n"/>
+      <c r="B21" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C21" s="7" t="inlineStr"/>
+      <c r="D21" s="7" t="inlineStr"/>
+      <c r="E21" s="7" t="inlineStr"/>
+      <c r="F21" s="7" t="inlineStr"/>
+      <c r="G21" s="7" t="inlineStr"/>
+      <c r="H21" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="10" t="n"/>
+      <c r="B22" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C22" s="7" t="inlineStr"/>
+      <c r="D22" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL01
 Môn: Lập trình cơ bản
@@ -3484,8 +4868,10 @@
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="G16" s="7" t="inlineStr"/>
-      <c r="H16" s="7" t="inlineStr"/>
+      <c r="E22" s="7" t="inlineStr"/>
+      <c r="F22" s="7" t="inlineStr"/>
+      <c r="G22" s="7" t="inlineStr"/>
+      <c r="H22" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3504,7 +4890,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3602,22 +4988,29 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
-        </is>
-      </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
@@ -3628,43 +5021,43 @@
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>LAB03</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="8" t="inlineStr">
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="9" t="inlineStr">
         <is>
           <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="9" t="n"/>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
 Môn: Lập trình cơ bản
 GV: Lê Văn C
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
@@ -3675,63 +5068,58 @@
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
 Môn: Lập trình cơ bản
 GV: Lê Văn C
 (Thực hành)</t>
         </is>
       </c>
+      <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="9" t="n"/>
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>LAB03</t>
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr"/>
       <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="10" t="inlineStr">
+      <c r="G12" s="9" t="inlineStr">
         <is>
           <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
         </is>
       </c>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+    <row r="13">
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
       <c r="D13" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="E13" s="7" t="inlineStr"/>
@@ -3739,76 +5127,226 @@
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14">
-      <c r="A14" s="9" t="n"/>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
+      <c r="D14" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
 Môn: Lập trình cơ bản
 GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
+(Thực hành)</t>
         </is>
       </c>
       <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
     </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+    <row r="15">
+      <c r="A15" s="10" t="n"/>
       <c r="B15" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr"/>
       <c r="D15" s="7" t="inlineStr"/>
       <c r="E15" s="7" t="inlineStr"/>
       <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="7" t="inlineStr"/>
+      <c r="G15" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H15" s="7" t="inlineStr"/>
     </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="6" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="10" t="n"/>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="7" t="inlineStr"/>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="inlineStr"/>
+      <c r="D17" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E17" s="7" t="inlineStr"/>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="7" t="inlineStr"/>
+      <c r="H17" s="7" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="10" t="n"/>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D18" s="7" t="inlineStr"/>
+      <c r="E18" s="7" t="inlineStr"/>
+      <c r="F18" s="7" t="inlineStr"/>
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="10" t="n"/>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D19" s="7" t="inlineStr"/>
+      <c r="E19" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F19" s="7" t="inlineStr"/>
+      <c r="G19" s="7" t="inlineStr"/>
+      <c r="H19" s="7" t="inlineStr"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="6" t="inlineStr">
         <is>
           <t>T2
 (19:30-21:30)</t>
         </is>
       </c>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="10" t="inlineStr">
+      <c r="B20" s="7" t="inlineStr">
+        <is>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C20" s="7" t="inlineStr"/>
+      <c r="D20" s="7" t="inlineStr"/>
+      <c r="E20" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F20" s="7" t="inlineStr"/>
+      <c r="G20" s="7" t="inlineStr"/>
+      <c r="H20" s="7" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="10" t="n"/>
+      <c r="B21" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C21" s="7" t="inlineStr"/>
+      <c r="D21" s="7" t="inlineStr"/>
+      <c r="E21" s="7" t="inlineStr"/>
+      <c r="F21" s="7" t="inlineStr"/>
+      <c r="G21" s="7" t="inlineStr"/>
+      <c r="H21" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="10" t="n"/>
+      <c r="B22" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C22" s="7" t="inlineStr"/>
+      <c r="D22" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL01
 Môn: Lập trình cơ bản
@@ -3816,8 +5354,10 @@
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="G16" s="7" t="inlineStr"/>
-      <c r="H16" s="7" t="inlineStr"/>
+      <c r="E22" s="7" t="inlineStr"/>
+      <c r="F22" s="7" t="inlineStr"/>
+      <c r="G22" s="7" t="inlineStr"/>
+      <c r="H22" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3836,7 +5376,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3934,22 +5474,29 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
-        </is>
-      </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
@@ -3960,43 +5507,43 @@
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>LAB03</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="8" t="inlineStr">
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="9" t="inlineStr">
         <is>
           <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="9" t="n"/>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
 Môn: Lập trình cơ bản
 GV: Lê Văn C
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
@@ -4007,63 +5554,58 @@
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
 Môn: Lập trình cơ bản
 GV: Lê Văn C
 (Thực hành)</t>
         </is>
       </c>
+      <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="9" t="n"/>
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>LAB03</t>
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr"/>
       <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="10" t="inlineStr">
+      <c r="G12" s="9" t="inlineStr">
         <is>
           <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
         </is>
       </c>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+    <row r="13">
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
       <c r="D13" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="E13" s="7" t="inlineStr"/>
@@ -4071,76 +5613,226 @@
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14">
-      <c r="A14" s="9" t="n"/>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
+      <c r="D14" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
 Môn: Lập trình cơ bản
 GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
+(Thực hành)</t>
         </is>
       </c>
       <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
     </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+    <row r="15">
+      <c r="A15" s="10" t="n"/>
       <c r="B15" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr"/>
       <c r="D15" s="7" t="inlineStr"/>
       <c r="E15" s="7" t="inlineStr"/>
       <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="7" t="inlineStr"/>
+      <c r="G15" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H15" s="7" t="inlineStr"/>
     </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="6" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="10" t="n"/>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="7" t="inlineStr"/>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="inlineStr"/>
+      <c r="D17" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E17" s="7" t="inlineStr"/>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="7" t="inlineStr"/>
+      <c r="H17" s="7" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="10" t="n"/>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D18" s="7" t="inlineStr"/>
+      <c r="E18" s="7" t="inlineStr"/>
+      <c r="F18" s="7" t="inlineStr"/>
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="10" t="n"/>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D19" s="7" t="inlineStr"/>
+      <c r="E19" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F19" s="7" t="inlineStr"/>
+      <c r="G19" s="7" t="inlineStr"/>
+      <c r="H19" s="7" t="inlineStr"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="6" t="inlineStr">
         <is>
           <t>T2
 (19:30-21:30)</t>
         </is>
       </c>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="10" t="inlineStr">
+      <c r="B20" s="7" t="inlineStr">
+        <is>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C20" s="7" t="inlineStr"/>
+      <c r="D20" s="7" t="inlineStr"/>
+      <c r="E20" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F20" s="7" t="inlineStr"/>
+      <c r="G20" s="7" t="inlineStr"/>
+      <c r="H20" s="7" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="10" t="n"/>
+      <c r="B21" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C21" s="7" t="inlineStr"/>
+      <c r="D21" s="7" t="inlineStr"/>
+      <c r="E21" s="7" t="inlineStr"/>
+      <c r="F21" s="7" t="inlineStr"/>
+      <c r="G21" s="7" t="inlineStr"/>
+      <c r="H21" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="10" t="n"/>
+      <c r="B22" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C22" s="7" t="inlineStr"/>
+      <c r="D22" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL01
 Môn: Lập trình cơ bản
@@ -4148,8 +5840,10 @@
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="G16" s="7" t="inlineStr"/>
-      <c r="H16" s="7" t="inlineStr"/>
+      <c r="E22" s="7" t="inlineStr"/>
+      <c r="F22" s="7" t="inlineStr"/>
+      <c r="G22" s="7" t="inlineStr"/>
+      <c r="H22" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4168,7 +5862,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4266,22 +5960,29 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
-        </is>
-      </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
@@ -4292,43 +5993,43 @@
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>LAB03</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="8" t="inlineStr">
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="9" t="inlineStr">
         <is>
           <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="9" t="n"/>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
 Môn: Lập trình cơ bản
 GV: Lê Văn C
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
@@ -4339,63 +6040,58 @@
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
 Môn: Lập trình cơ bản
 GV: Lê Văn C
 (Thực hành)</t>
         </is>
       </c>
+      <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="9" t="n"/>
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>LAB03</t>
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr"/>
       <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="10" t="inlineStr">
+      <c r="G12" s="9" t="inlineStr">
         <is>
           <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
         </is>
       </c>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+    <row r="13">
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
       <c r="D13" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="E13" s="7" t="inlineStr"/>
@@ -4403,76 +6099,226 @@
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14">
-      <c r="A14" s="9" t="n"/>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
+      <c r="D14" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
 Môn: Lập trình cơ bản
 GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
+(Thực hành)</t>
         </is>
       </c>
       <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
     </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+    <row r="15">
+      <c r="A15" s="10" t="n"/>
       <c r="B15" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr"/>
       <c r="D15" s="7" t="inlineStr"/>
       <c r="E15" s="7" t="inlineStr"/>
       <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="7" t="inlineStr"/>
+      <c r="G15" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H15" s="7" t="inlineStr"/>
     </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="6" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="10" t="n"/>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="7" t="inlineStr"/>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="inlineStr"/>
+      <c r="D17" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E17" s="7" t="inlineStr"/>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="7" t="inlineStr"/>
+      <c r="H17" s="7" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="10" t="n"/>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D18" s="7" t="inlineStr"/>
+      <c r="E18" s="7" t="inlineStr"/>
+      <c r="F18" s="7" t="inlineStr"/>
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="10" t="n"/>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D19" s="7" t="inlineStr"/>
+      <c r="E19" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F19" s="7" t="inlineStr"/>
+      <c r="G19" s="7" t="inlineStr"/>
+      <c r="H19" s="7" t="inlineStr"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="6" t="inlineStr">
         <is>
           <t>T2
 (19:30-21:30)</t>
         </is>
       </c>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="10" t="inlineStr">
+      <c r="B20" s="7" t="inlineStr">
+        <is>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C20" s="7" t="inlineStr"/>
+      <c r="D20" s="7" t="inlineStr"/>
+      <c r="E20" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F20" s="7" t="inlineStr"/>
+      <c r="G20" s="7" t="inlineStr"/>
+      <c r="H20" s="7" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="10" t="n"/>
+      <c r="B21" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C21" s="7" t="inlineStr"/>
+      <c r="D21" s="7" t="inlineStr"/>
+      <c r="E21" s="7" t="inlineStr"/>
+      <c r="F21" s="7" t="inlineStr"/>
+      <c r="G21" s="7" t="inlineStr"/>
+      <c r="H21" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="10" t="n"/>
+      <c r="B22" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C22" s="7" t="inlineStr"/>
+      <c r="D22" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL01
 Môn: Lập trình cơ bản
@@ -4480,8 +6326,10 @@
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="G16" s="7" t="inlineStr"/>
-      <c r="H16" s="7" t="inlineStr"/>
+      <c r="E22" s="7" t="inlineStr"/>
+      <c r="F22" s="7" t="inlineStr"/>
+      <c r="G22" s="7" t="inlineStr"/>
+      <c r="H22" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4500,7 +6348,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4598,22 +6446,29 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
-        </is>
-      </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
@@ -4624,43 +6479,43 @@
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>LAB03</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="8" t="inlineStr">
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="9" t="inlineStr">
         <is>
           <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="9" t="n"/>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
 Môn: Lập trình cơ bản
 GV: Lê Văn C
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
@@ -4671,63 +6526,58 @@
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
 Môn: Lập trình cơ bản
 GV: Lê Văn C
 (Thực hành)</t>
         </is>
       </c>
+      <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="9" t="n"/>
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>LAB03</t>
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr"/>
       <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="10" t="inlineStr">
+      <c r="G12" s="9" t="inlineStr">
         <is>
           <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
         </is>
       </c>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+    <row r="13">
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
       <c r="D13" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="E13" s="7" t="inlineStr"/>
@@ -4735,76 +6585,226 @@
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14">
-      <c r="A14" s="9" t="n"/>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
+      <c r="D14" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
 Môn: Lập trình cơ bản
 GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
+(Thực hành)</t>
         </is>
       </c>
       <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
     </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+    <row r="15">
+      <c r="A15" s="10" t="n"/>
       <c r="B15" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr"/>
       <c r="D15" s="7" t="inlineStr"/>
       <c r="E15" s="7" t="inlineStr"/>
       <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="7" t="inlineStr"/>
+      <c r="G15" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H15" s="7" t="inlineStr"/>
     </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="6" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="10" t="n"/>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="7" t="inlineStr"/>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="inlineStr"/>
+      <c r="D17" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E17" s="7" t="inlineStr"/>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="7" t="inlineStr"/>
+      <c r="H17" s="7" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="10" t="n"/>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D18" s="7" t="inlineStr"/>
+      <c r="E18" s="7" t="inlineStr"/>
+      <c r="F18" s="7" t="inlineStr"/>
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="10" t="n"/>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D19" s="7" t="inlineStr"/>
+      <c r="E19" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F19" s="7" t="inlineStr"/>
+      <c r="G19" s="7" t="inlineStr"/>
+      <c r="H19" s="7" t="inlineStr"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="6" t="inlineStr">
         <is>
           <t>T2
 (19:30-21:30)</t>
         </is>
       </c>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="10" t="inlineStr">
+      <c r="B20" s="7" t="inlineStr">
+        <is>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C20" s="7" t="inlineStr"/>
+      <c r="D20" s="7" t="inlineStr"/>
+      <c r="E20" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F20" s="7" t="inlineStr"/>
+      <c r="G20" s="7" t="inlineStr"/>
+      <c r="H20" s="7" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="10" t="n"/>
+      <c r="B21" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C21" s="7" t="inlineStr"/>
+      <c r="D21" s="7" t="inlineStr"/>
+      <c r="E21" s="7" t="inlineStr"/>
+      <c r="F21" s="7" t="inlineStr"/>
+      <c r="G21" s="7" t="inlineStr"/>
+      <c r="H21" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="10" t="n"/>
+      <c r="B22" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C22" s="7" t="inlineStr"/>
+      <c r="D22" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL01
 Môn: Lập trình cơ bản
@@ -4812,8 +6812,10 @@
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="G16" s="7" t="inlineStr"/>
-      <c r="H16" s="7" t="inlineStr"/>
+      <c r="E22" s="7" t="inlineStr"/>
+      <c r="F22" s="7" t="inlineStr"/>
+      <c r="G22" s="7" t="inlineStr"/>
+      <c r="H22" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4832,7 +6834,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4930,22 +6932,29 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
-        </is>
-      </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
@@ -4956,43 +6965,43 @@
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>LAB03</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="8" t="inlineStr">
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="9" t="inlineStr">
         <is>
           <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="9" t="n"/>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
 Môn: Lập trình cơ bản
 GV: Lê Văn C
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
@@ -5003,63 +7012,58 @@
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
 Môn: Lập trình cơ bản
 GV: Lê Văn C
 (Thực hành)</t>
         </is>
       </c>
+      <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="9" t="n"/>
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>LAB03</t>
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr"/>
       <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="10" t="inlineStr">
+      <c r="G12" s="9" t="inlineStr">
         <is>
           <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
         </is>
       </c>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+    <row r="13">
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
       <c r="D13" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="E13" s="7" t="inlineStr"/>
@@ -5067,76 +7071,226 @@
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14">
-      <c r="A14" s="9" t="n"/>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
+      <c r="D14" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
 Môn: Lập trình cơ bản
 GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
+(Thực hành)</t>
         </is>
       </c>
       <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
     </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+    <row r="15">
+      <c r="A15" s="10" t="n"/>
       <c r="B15" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr"/>
       <c r="D15" s="7" t="inlineStr"/>
       <c r="E15" s="7" t="inlineStr"/>
       <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="7" t="inlineStr"/>
+      <c r="G15" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H15" s="7" t="inlineStr"/>
     </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="6" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="10" t="n"/>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="7" t="inlineStr"/>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="inlineStr"/>
+      <c r="D17" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E17" s="7" t="inlineStr"/>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="7" t="inlineStr"/>
+      <c r="H17" s="7" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="10" t="n"/>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D18" s="7" t="inlineStr"/>
+      <c r="E18" s="7" t="inlineStr"/>
+      <c r="F18" s="7" t="inlineStr"/>
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="10" t="n"/>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D19" s="7" t="inlineStr"/>
+      <c r="E19" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F19" s="7" t="inlineStr"/>
+      <c r="G19" s="7" t="inlineStr"/>
+      <c r="H19" s="7" t="inlineStr"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="6" t="inlineStr">
         <is>
           <t>T2
 (19:30-21:30)</t>
         </is>
       </c>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="10" t="inlineStr">
+      <c r="B20" s="7" t="inlineStr">
+        <is>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C20" s="7" t="inlineStr"/>
+      <c r="D20" s="7" t="inlineStr"/>
+      <c r="E20" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F20" s="7" t="inlineStr"/>
+      <c r="G20" s="7" t="inlineStr"/>
+      <c r="H20" s="7" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="10" t="n"/>
+      <c r="B21" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C21" s="7" t="inlineStr"/>
+      <c r="D21" s="7" t="inlineStr"/>
+      <c r="E21" s="7" t="inlineStr"/>
+      <c r="F21" s="7" t="inlineStr"/>
+      <c r="G21" s="7" t="inlineStr"/>
+      <c r="H21" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="10" t="n"/>
+      <c r="B22" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C22" s="7" t="inlineStr"/>
+      <c r="D22" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL01
 Môn: Lập trình cơ bản
@@ -5144,8 +7298,10 @@
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="G16" s="7" t="inlineStr"/>
-      <c r="H16" s="7" t="inlineStr"/>
+      <c r="E22" s="7" t="inlineStr"/>
+      <c r="F22" s="7" t="inlineStr"/>
+      <c r="G22" s="7" t="inlineStr"/>
+      <c r="H22" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5164,7 +7320,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5262,22 +7418,29 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
-        </is>
-      </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="inlineStr"/>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
@@ -5288,43 +7451,43 @@
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>LAB03</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="8" t="inlineStr">
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="9" t="inlineStr">
         <is>
           <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="9" t="n"/>
+      <c r="A10" s="10" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
 Môn: Lập trình cơ bản
 GV: Lê Văn C
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="H10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
@@ -5335,63 +7498,58 @@
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB01</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
+      <c r="G11" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
 Môn: Lập trình cơ bản
 GV: Lê Văn C
 (Thực hành)</t>
         </is>
       </c>
+      <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="9" t="n"/>
+      <c r="A12" s="10" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
+          <t>LAB03</t>
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr"/>
       <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="10" t="inlineStr">
+      <c r="G12" s="9" t="inlineStr">
         <is>
           <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
         </is>
       </c>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>C2
-(15:00-17:00)</t>
-        </is>
-      </c>
+    <row r="13">
+      <c r="A13" s="10" t="n"/>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
       <c r="D13" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="E13" s="7" t="inlineStr"/>
@@ -5399,76 +7557,226 @@
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14">
-      <c r="A14" s="9" t="n"/>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>C2
+(15:00-17:00)</t>
+        </is>
+      </c>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="7" t="inlineStr"/>
-      <c r="E14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
+      <c r="D14" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
 Môn: Lập trình cơ bản
 GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="F14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
+(Thực hành)</t>
         </is>
       </c>
       <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
     </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+    <row r="15">
+      <c r="A15" s="10" t="n"/>
       <c r="B15" s="7" t="inlineStr">
         <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C15" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr"/>
       <c r="D15" s="7" t="inlineStr"/>
       <c r="E15" s="7" t="inlineStr"/>
       <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="7" t="inlineStr"/>
+      <c r="G15" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="H15" s="7" t="inlineStr"/>
     </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="6" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="10" t="n"/>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C16" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="7" t="inlineStr"/>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="inlineStr"/>
+      <c r="D17" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="E17" s="7" t="inlineStr"/>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="7" t="inlineStr"/>
+      <c r="H17" s="7" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="10" t="n"/>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D18" s="7" t="inlineStr"/>
+      <c r="E18" s="7" t="inlineStr"/>
+      <c r="F18" s="7" t="inlineStr"/>
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H18" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="10" t="n"/>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D19" s="7" t="inlineStr"/>
+      <c r="E19" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F19" s="7" t="inlineStr"/>
+      <c r="G19" s="7" t="inlineStr"/>
+      <c r="H19" s="7" t="inlineStr"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="6" t="inlineStr">
         <is>
           <t>T2
 (19:30-21:30)</t>
         </is>
       </c>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>R101</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="inlineStr"/>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="10" t="inlineStr">
+      <c r="B20" s="7" t="inlineStr">
+        <is>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C20" s="7" t="inlineStr"/>
+      <c r="D20" s="7" t="inlineStr"/>
+      <c r="E20" s="9" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F20" s="7" t="inlineStr"/>
+      <c r="G20" s="7" t="inlineStr"/>
+      <c r="H20" s="7" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="10" t="n"/>
+      <c r="B21" s="7" t="inlineStr">
+        <is>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C21" s="7" t="inlineStr"/>
+      <c r="D21" s="7" t="inlineStr"/>
+      <c r="E21" s="7" t="inlineStr"/>
+      <c r="F21" s="7" t="inlineStr"/>
+      <c r="G21" s="7" t="inlineStr"/>
+      <c r="H21" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="10" t="n"/>
+      <c r="B22" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C22" s="7" t="inlineStr"/>
+      <c r="D22" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL01
 Môn: Lập trình cơ bản
@@ -5476,8 +7784,10 @@
 (Lý thuyết)</t>
         </is>
       </c>
-      <c r="G16" s="7" t="inlineStr"/>
-      <c r="H16" s="7" t="inlineStr"/>
+      <c r="E22" s="7" t="inlineStr"/>
+      <c r="F22" s="7" t="inlineStr"/>
+      <c r="G22" s="7" t="inlineStr"/>
+      <c r="H22" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/timetabling_GA/results/HK1_CT01/TKB_HocKy_PhongHoc.xlsx
+++ b/timetabling_GA/results/HK1_CT01/TKB_HocKy_PhongHoc.xlsx
@@ -147,10 +147,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -614,61 +614,54 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+GV: Lê Văn C
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>S2
-(09:00-11:00)</t>
-        </is>
-      </c>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="10" t="n"/>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2
+(09:00-11:00)</t>
+        </is>
+      </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB03</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
@@ -676,150 +669,157 @@
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="H10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="n"/>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Thực hành)</t>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="10" t="n"/>
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr"/>
-      <c r="D12" s="7" t="inlineStr"/>
+      <c r="D12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13">
-      <c r="A13" s="10" t="n"/>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E13" s="7" t="inlineStr"/>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="F13" s="7" t="inlineStr"/>
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="inlineStr"/>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F14" s="7" t="inlineStr"/>
+      <c r="G14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="9" t="n"/>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr"/>
+      <c r="D15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="6" t="inlineStr">
         <is>
           <t>C2
 (15:00-17:00)</t>
         </is>
       </c>
-      <c r="B14" s="7" t="inlineStr">
+      <c r="B16" s="7" t="inlineStr">
         <is>
           <t>LAB02</t>
         </is>
       </c>
-      <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="9" t="inlineStr">
+      <c r="C16" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL06
 Môn: Cơ sở dữ liệu
 GV: Nguyễn Văn A
 (Thực hành)</t>
-        </is>
-      </c>
-      <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G14" s="7" t="inlineStr"/>
-      <c r="H14" s="7" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="10" t="n"/>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>LAB03</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="7" t="inlineStr"/>
-      <c r="E15" s="7" t="inlineStr"/>
-      <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H15" s="7" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="10" t="n"/>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
         </is>
       </c>
       <c r="D16" s="7" t="inlineStr"/>
@@ -828,134 +828,155 @@
       <c r="G16" s="7" t="inlineStr"/>
       <c r="H16" s="7" t="inlineStr"/>
     </row>
-    <row r="17" ht="60" customHeight="1">
-      <c r="A17" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+    <row r="17">
+      <c r="A17" s="9" t="n"/>
       <c r="B17" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C17" s="7" t="inlineStr"/>
-      <c r="D17" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E17" s="7" t="inlineStr"/>
+      <c r="D17" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E17" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F17" s="7" t="inlineStr"/>
       <c r="G17" s="7" t="inlineStr"/>
       <c r="H17" s="7" t="inlineStr"/>
     </row>
-    <row r="18">
-      <c r="A18" s="10" t="n"/>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B18" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C18" s="8" t="inlineStr">
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C18" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL07
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Lý thuyết)</t>
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
         </is>
       </c>
       <c r="D18" s="7" t="inlineStr"/>
       <c r="E18" s="7" t="inlineStr"/>
       <c r="F18" s="7" t="inlineStr"/>
-      <c r="G18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="H18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G18" s="7" t="inlineStr"/>
+      <c r="H18" s="7" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" s="10" t="n"/>
+      <c r="A19" s="9" t="n"/>
       <c r="B19" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C19" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C19" s="7" t="inlineStr"/>
       <c r="D19" s="7" t="inlineStr"/>
       <c r="E19" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL06
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+GV: Lê Văn C
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="F19" s="7" t="inlineStr"/>
       <c r="G19" s="7" t="inlineStr"/>
-      <c r="H19" s="7" t="inlineStr"/>
-    </row>
-    <row r="20" ht="60" customHeight="1">
-      <c r="A20" s="6" t="inlineStr">
+      <c r="H19" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="n"/>
+      <c r="B20" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C20" s="7" t="inlineStr"/>
+      <c r="D20" s="7" t="inlineStr"/>
+      <c r="E20" s="7" t="inlineStr"/>
+      <c r="F20" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G20" s="7" t="inlineStr"/>
+      <c r="H20" s="7" t="inlineStr"/>
+    </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="6" t="inlineStr">
         <is>
           <t>T2
 (19:30-21:30)</t>
         </is>
       </c>
-      <c r="B20" s="7" t="inlineStr">
-        <is>
-          <t>LAB03</t>
-        </is>
-      </c>
-      <c r="C20" s="7" t="inlineStr"/>
-      <c r="D20" s="7" t="inlineStr"/>
-      <c r="E20" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="F20" s="7" t="inlineStr"/>
-      <c r="G20" s="7" t="inlineStr"/>
-      <c r="H20" s="7" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="10" t="n"/>
       <c r="B21" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C21" s="7" t="inlineStr"/>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C21" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="D21" s="7" t="inlineStr"/>
       <c r="E21" s="7" t="inlineStr"/>
       <c r="F21" s="7" t="inlineStr"/>
       <c r="G21" s="7" t="inlineStr"/>
-      <c r="H21" s="8" t="inlineStr">
+      <c r="H21" s="7" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="9" t="n"/>
+      <c r="B22" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C22" s="7" t="inlineStr"/>
+      <c r="D22" s="7" t="inlineStr"/>
+      <c r="E22" s="7" t="inlineStr"/>
+      <c r="F22" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G22" s="7" t="inlineStr"/>
+      <c r="H22" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL07
 Môn: Cơ sở dữ liệu
@@ -963,27 +984,6 @@
 (Lý thuyết)</t>
         </is>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="10" t="n"/>
-      <c r="B22" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C22" s="7" t="inlineStr"/>
-      <c r="D22" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E22" s="7" t="inlineStr"/>
-      <c r="F22" s="7" t="inlineStr"/>
-      <c r="G22" s="7" t="inlineStr"/>
-      <c r="H22" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1100,61 +1100,54 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+GV: Lê Văn C
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>S2
-(09:00-11:00)</t>
-        </is>
-      </c>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="10" t="n"/>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2
+(09:00-11:00)</t>
+        </is>
+      </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB03</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
@@ -1162,150 +1155,157 @@
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="H10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="n"/>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Thực hành)</t>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="10" t="n"/>
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr"/>
-      <c r="D12" s="7" t="inlineStr"/>
+      <c r="D12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13">
-      <c r="A13" s="10" t="n"/>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E13" s="7" t="inlineStr"/>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="F13" s="7" t="inlineStr"/>
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="inlineStr"/>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F14" s="7" t="inlineStr"/>
+      <c r="G14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="9" t="n"/>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr"/>
+      <c r="D15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="6" t="inlineStr">
         <is>
           <t>C2
 (15:00-17:00)</t>
         </is>
       </c>
-      <c r="B14" s="7" t="inlineStr">
+      <c r="B16" s="7" t="inlineStr">
         <is>
           <t>LAB02</t>
         </is>
       </c>
-      <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="9" t="inlineStr">
+      <c r="C16" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL06
 Môn: Cơ sở dữ liệu
 GV: Nguyễn Văn A
 (Thực hành)</t>
-        </is>
-      </c>
-      <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G14" s="7" t="inlineStr"/>
-      <c r="H14" s="7" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="10" t="n"/>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>LAB03</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="7" t="inlineStr"/>
-      <c r="E15" s="7" t="inlineStr"/>
-      <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H15" s="7" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="10" t="n"/>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
         </is>
       </c>
       <c r="D16" s="7" t="inlineStr"/>
@@ -1314,134 +1314,155 @@
       <c r="G16" s="7" t="inlineStr"/>
       <c r="H16" s="7" t="inlineStr"/>
     </row>
-    <row r="17" ht="60" customHeight="1">
-      <c r="A17" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+    <row r="17">
+      <c r="A17" s="9" t="n"/>
       <c r="B17" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C17" s="7" t="inlineStr"/>
-      <c r="D17" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E17" s="7" t="inlineStr"/>
+      <c r="D17" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E17" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F17" s="7" t="inlineStr"/>
       <c r="G17" s="7" t="inlineStr"/>
       <c r="H17" s="7" t="inlineStr"/>
     </row>
-    <row r="18">
-      <c r="A18" s="10" t="n"/>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B18" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C18" s="8" t="inlineStr">
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C18" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL07
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Lý thuyết)</t>
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
         </is>
       </c>
       <c r="D18" s="7" t="inlineStr"/>
       <c r="E18" s="7" t="inlineStr"/>
       <c r="F18" s="7" t="inlineStr"/>
-      <c r="G18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="H18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G18" s="7" t="inlineStr"/>
+      <c r="H18" s="7" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" s="10" t="n"/>
+      <c r="A19" s="9" t="n"/>
       <c r="B19" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C19" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C19" s="7" t="inlineStr"/>
       <c r="D19" s="7" t="inlineStr"/>
       <c r="E19" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL06
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+GV: Lê Văn C
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="F19" s="7" t="inlineStr"/>
       <c r="G19" s="7" t="inlineStr"/>
-      <c r="H19" s="7" t="inlineStr"/>
-    </row>
-    <row r="20" ht="60" customHeight="1">
-      <c r="A20" s="6" t="inlineStr">
+      <c r="H19" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="n"/>
+      <c r="B20" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C20" s="7" t="inlineStr"/>
+      <c r="D20" s="7" t="inlineStr"/>
+      <c r="E20" s="7" t="inlineStr"/>
+      <c r="F20" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G20" s="7" t="inlineStr"/>
+      <c r="H20" s="7" t="inlineStr"/>
+    </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="6" t="inlineStr">
         <is>
           <t>T2
 (19:30-21:30)</t>
         </is>
       </c>
-      <c r="B20" s="7" t="inlineStr">
-        <is>
-          <t>LAB03</t>
-        </is>
-      </c>
-      <c r="C20" s="7" t="inlineStr"/>
-      <c r="D20" s="7" t="inlineStr"/>
-      <c r="E20" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="F20" s="7" t="inlineStr"/>
-      <c r="G20" s="7" t="inlineStr"/>
-      <c r="H20" s="7" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="10" t="n"/>
       <c r="B21" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C21" s="7" t="inlineStr"/>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C21" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="D21" s="7" t="inlineStr"/>
       <c r="E21" s="7" t="inlineStr"/>
       <c r="F21" s="7" t="inlineStr"/>
       <c r="G21" s="7" t="inlineStr"/>
-      <c r="H21" s="8" t="inlineStr">
+      <c r="H21" s="7" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="9" t="n"/>
+      <c r="B22" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C22" s="7" t="inlineStr"/>
+      <c r="D22" s="7" t="inlineStr"/>
+      <c r="E22" s="7" t="inlineStr"/>
+      <c r="F22" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G22" s="7" t="inlineStr"/>
+      <c r="H22" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL07
 Môn: Cơ sở dữ liệu
@@ -1449,27 +1470,6 @@
 (Lý thuyết)</t>
         </is>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="10" t="n"/>
-      <c r="B22" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C22" s="7" t="inlineStr"/>
-      <c r="D22" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E22" s="7" t="inlineStr"/>
-      <c r="F22" s="7" t="inlineStr"/>
-      <c r="G22" s="7" t="inlineStr"/>
-      <c r="H22" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1586,61 +1586,54 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+GV: Lê Văn C
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>S2
-(09:00-11:00)</t>
-        </is>
-      </c>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="10" t="n"/>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2
+(09:00-11:00)</t>
+        </is>
+      </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB03</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
@@ -1648,150 +1641,157 @@
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="H10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="n"/>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Thực hành)</t>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="10" t="n"/>
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr"/>
-      <c r="D12" s="7" t="inlineStr"/>
+      <c r="D12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13">
-      <c r="A13" s="10" t="n"/>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E13" s="7" t="inlineStr"/>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="F13" s="7" t="inlineStr"/>
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="inlineStr"/>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F14" s="7" t="inlineStr"/>
+      <c r="G14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="9" t="n"/>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr"/>
+      <c r="D15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="6" t="inlineStr">
         <is>
           <t>C2
 (15:00-17:00)</t>
         </is>
       </c>
-      <c r="B14" s="7" t="inlineStr">
+      <c r="B16" s="7" t="inlineStr">
         <is>
           <t>LAB02</t>
         </is>
       </c>
-      <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="9" t="inlineStr">
+      <c r="C16" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL06
 Môn: Cơ sở dữ liệu
 GV: Nguyễn Văn A
 (Thực hành)</t>
-        </is>
-      </c>
-      <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G14" s="7" t="inlineStr"/>
-      <c r="H14" s="7" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="10" t="n"/>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>LAB03</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="7" t="inlineStr"/>
-      <c r="E15" s="7" t="inlineStr"/>
-      <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H15" s="7" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="10" t="n"/>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
         </is>
       </c>
       <c r="D16" s="7" t="inlineStr"/>
@@ -1800,134 +1800,155 @@
       <c r="G16" s="7" t="inlineStr"/>
       <c r="H16" s="7" t="inlineStr"/>
     </row>
-    <row r="17" ht="60" customHeight="1">
-      <c r="A17" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+    <row r="17">
+      <c r="A17" s="9" t="n"/>
       <c r="B17" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C17" s="7" t="inlineStr"/>
-      <c r="D17" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E17" s="7" t="inlineStr"/>
+      <c r="D17" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E17" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F17" s="7" t="inlineStr"/>
       <c r="G17" s="7" t="inlineStr"/>
       <c r="H17" s="7" t="inlineStr"/>
     </row>
-    <row r="18">
-      <c r="A18" s="10" t="n"/>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B18" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C18" s="8" t="inlineStr">
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C18" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL07
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Lý thuyết)</t>
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
         </is>
       </c>
       <c r="D18" s="7" t="inlineStr"/>
       <c r="E18" s="7" t="inlineStr"/>
       <c r="F18" s="7" t="inlineStr"/>
-      <c r="G18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="H18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G18" s="7" t="inlineStr"/>
+      <c r="H18" s="7" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" s="10" t="n"/>
+      <c r="A19" s="9" t="n"/>
       <c r="B19" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C19" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C19" s="7" t="inlineStr"/>
       <c r="D19" s="7" t="inlineStr"/>
       <c r="E19" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL06
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+GV: Lê Văn C
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="F19" s="7" t="inlineStr"/>
       <c r="G19" s="7" t="inlineStr"/>
-      <c r="H19" s="7" t="inlineStr"/>
-    </row>
-    <row r="20" ht="60" customHeight="1">
-      <c r="A20" s="6" t="inlineStr">
+      <c r="H19" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="n"/>
+      <c r="B20" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C20" s="7" t="inlineStr"/>
+      <c r="D20" s="7" t="inlineStr"/>
+      <c r="E20" s="7" t="inlineStr"/>
+      <c r="F20" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G20" s="7" t="inlineStr"/>
+      <c r="H20" s="7" t="inlineStr"/>
+    </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="6" t="inlineStr">
         <is>
           <t>T2
 (19:30-21:30)</t>
         </is>
       </c>
-      <c r="B20" s="7" t="inlineStr">
-        <is>
-          <t>LAB03</t>
-        </is>
-      </c>
-      <c r="C20" s="7" t="inlineStr"/>
-      <c r="D20" s="7" t="inlineStr"/>
-      <c r="E20" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="F20" s="7" t="inlineStr"/>
-      <c r="G20" s="7" t="inlineStr"/>
-      <c r="H20" s="7" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="10" t="n"/>
       <c r="B21" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C21" s="7" t="inlineStr"/>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C21" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="D21" s="7" t="inlineStr"/>
       <c r="E21" s="7" t="inlineStr"/>
       <c r="F21" s="7" t="inlineStr"/>
       <c r="G21" s="7" t="inlineStr"/>
-      <c r="H21" s="8" t="inlineStr">
+      <c r="H21" s="7" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="9" t="n"/>
+      <c r="B22" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C22" s="7" t="inlineStr"/>
+      <c r="D22" s="7" t="inlineStr"/>
+      <c r="E22" s="7" t="inlineStr"/>
+      <c r="F22" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G22" s="7" t="inlineStr"/>
+      <c r="H22" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL07
 Môn: Cơ sở dữ liệu
@@ -1935,27 +1956,6 @@
 (Lý thuyết)</t>
         </is>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="10" t="n"/>
-      <c r="B22" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C22" s="7" t="inlineStr"/>
-      <c r="D22" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E22" s="7" t="inlineStr"/>
-      <c r="F22" s="7" t="inlineStr"/>
-      <c r="G22" s="7" t="inlineStr"/>
-      <c r="H22" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2072,61 +2072,54 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+GV: Lê Văn C
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>S2
-(09:00-11:00)</t>
-        </is>
-      </c>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="10" t="n"/>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2
+(09:00-11:00)</t>
+        </is>
+      </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB03</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
@@ -2134,150 +2127,157 @@
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="H10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="n"/>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Thực hành)</t>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="10" t="n"/>
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr"/>
-      <c r="D12" s="7" t="inlineStr"/>
+      <c r="D12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13">
-      <c r="A13" s="10" t="n"/>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E13" s="7" t="inlineStr"/>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="F13" s="7" t="inlineStr"/>
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="inlineStr"/>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F14" s="7" t="inlineStr"/>
+      <c r="G14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="9" t="n"/>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr"/>
+      <c r="D15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="6" t="inlineStr">
         <is>
           <t>C2
 (15:00-17:00)</t>
         </is>
       </c>
-      <c r="B14" s="7" t="inlineStr">
+      <c r="B16" s="7" t="inlineStr">
         <is>
           <t>LAB02</t>
         </is>
       </c>
-      <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="9" t="inlineStr">
+      <c r="C16" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL06
 Môn: Cơ sở dữ liệu
 GV: Nguyễn Văn A
 (Thực hành)</t>
-        </is>
-      </c>
-      <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G14" s="7" t="inlineStr"/>
-      <c r="H14" s="7" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="10" t="n"/>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>LAB03</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="7" t="inlineStr"/>
-      <c r="E15" s="7" t="inlineStr"/>
-      <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H15" s="7" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="10" t="n"/>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
         </is>
       </c>
       <c r="D16" s="7" t="inlineStr"/>
@@ -2286,134 +2286,155 @@
       <c r="G16" s="7" t="inlineStr"/>
       <c r="H16" s="7" t="inlineStr"/>
     </row>
-    <row r="17" ht="60" customHeight="1">
-      <c r="A17" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+    <row r="17">
+      <c r="A17" s="9" t="n"/>
       <c r="B17" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C17" s="7" t="inlineStr"/>
-      <c r="D17" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E17" s="7" t="inlineStr"/>
+      <c r="D17" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E17" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F17" s="7" t="inlineStr"/>
       <c r="G17" s="7" t="inlineStr"/>
       <c r="H17" s="7" t="inlineStr"/>
     </row>
-    <row r="18">
-      <c r="A18" s="10" t="n"/>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B18" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C18" s="8" t="inlineStr">
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C18" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL07
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Lý thuyết)</t>
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
         </is>
       </c>
       <c r="D18" s="7" t="inlineStr"/>
       <c r="E18" s="7" t="inlineStr"/>
       <c r="F18" s="7" t="inlineStr"/>
-      <c r="G18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="H18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G18" s="7" t="inlineStr"/>
+      <c r="H18" s="7" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" s="10" t="n"/>
+      <c r="A19" s="9" t="n"/>
       <c r="B19" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C19" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C19" s="7" t="inlineStr"/>
       <c r="D19" s="7" t="inlineStr"/>
       <c r="E19" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL06
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+GV: Lê Văn C
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="F19" s="7" t="inlineStr"/>
       <c r="G19" s="7" t="inlineStr"/>
-      <c r="H19" s="7" t="inlineStr"/>
-    </row>
-    <row r="20" ht="60" customHeight="1">
-      <c r="A20" s="6" t="inlineStr">
+      <c r="H19" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="n"/>
+      <c r="B20" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C20" s="7" t="inlineStr"/>
+      <c r="D20" s="7" t="inlineStr"/>
+      <c r="E20" s="7" t="inlineStr"/>
+      <c r="F20" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G20" s="7" t="inlineStr"/>
+      <c r="H20" s="7" t="inlineStr"/>
+    </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="6" t="inlineStr">
         <is>
           <t>T2
 (19:30-21:30)</t>
         </is>
       </c>
-      <c r="B20" s="7" t="inlineStr">
-        <is>
-          <t>LAB03</t>
-        </is>
-      </c>
-      <c r="C20" s="7" t="inlineStr"/>
-      <c r="D20" s="7" t="inlineStr"/>
-      <c r="E20" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="F20" s="7" t="inlineStr"/>
-      <c r="G20" s="7" t="inlineStr"/>
-      <c r="H20" s="7" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="10" t="n"/>
       <c r="B21" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C21" s="7" t="inlineStr"/>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C21" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="D21" s="7" t="inlineStr"/>
       <c r="E21" s="7" t="inlineStr"/>
       <c r="F21" s="7" t="inlineStr"/>
       <c r="G21" s="7" t="inlineStr"/>
-      <c r="H21" s="8" t="inlineStr">
+      <c r="H21" s="7" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="9" t="n"/>
+      <c r="B22" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C22" s="7" t="inlineStr"/>
+      <c r="D22" s="7" t="inlineStr"/>
+      <c r="E22" s="7" t="inlineStr"/>
+      <c r="F22" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G22" s="7" t="inlineStr"/>
+      <c r="H22" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL07
 Môn: Cơ sở dữ liệu
@@ -2421,27 +2442,6 @@
 (Lý thuyết)</t>
         </is>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="10" t="n"/>
-      <c r="B22" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C22" s="7" t="inlineStr"/>
-      <c r="D22" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E22" s="7" t="inlineStr"/>
-      <c r="F22" s="7" t="inlineStr"/>
-      <c r="G22" s="7" t="inlineStr"/>
-      <c r="H22" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2558,61 +2558,54 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+GV: Lê Văn C
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>S2
-(09:00-11:00)</t>
-        </is>
-      </c>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="10" t="n"/>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2
+(09:00-11:00)</t>
+        </is>
+      </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB03</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
@@ -2620,150 +2613,157 @@
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="H10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="n"/>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Thực hành)</t>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="10" t="n"/>
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr"/>
-      <c r="D12" s="7" t="inlineStr"/>
+      <c r="D12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13">
-      <c r="A13" s="10" t="n"/>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E13" s="7" t="inlineStr"/>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="F13" s="7" t="inlineStr"/>
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="inlineStr"/>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F14" s="7" t="inlineStr"/>
+      <c r="G14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="9" t="n"/>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr"/>
+      <c r="D15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="6" t="inlineStr">
         <is>
           <t>C2
 (15:00-17:00)</t>
         </is>
       </c>
-      <c r="B14" s="7" t="inlineStr">
+      <c r="B16" s="7" t="inlineStr">
         <is>
           <t>LAB02</t>
         </is>
       </c>
-      <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="9" t="inlineStr">
+      <c r="C16" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL06
 Môn: Cơ sở dữ liệu
 GV: Nguyễn Văn A
 (Thực hành)</t>
-        </is>
-      </c>
-      <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G14" s="7" t="inlineStr"/>
-      <c r="H14" s="7" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="10" t="n"/>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>LAB03</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="7" t="inlineStr"/>
-      <c r="E15" s="7" t="inlineStr"/>
-      <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H15" s="7" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="10" t="n"/>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
         </is>
       </c>
       <c r="D16" s="7" t="inlineStr"/>
@@ -2772,134 +2772,155 @@
       <c r="G16" s="7" t="inlineStr"/>
       <c r="H16" s="7" t="inlineStr"/>
     </row>
-    <row r="17" ht="60" customHeight="1">
-      <c r="A17" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+    <row r="17">
+      <c r="A17" s="9" t="n"/>
       <c r="B17" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C17" s="7" t="inlineStr"/>
-      <c r="D17" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E17" s="7" t="inlineStr"/>
+      <c r="D17" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E17" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F17" s="7" t="inlineStr"/>
       <c r="G17" s="7" t="inlineStr"/>
       <c r="H17" s="7" t="inlineStr"/>
     </row>
-    <row r="18">
-      <c r="A18" s="10" t="n"/>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B18" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C18" s="8" t="inlineStr">
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C18" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL07
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Lý thuyết)</t>
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
         </is>
       </c>
       <c r="D18" s="7" t="inlineStr"/>
       <c r="E18" s="7" t="inlineStr"/>
       <c r="F18" s="7" t="inlineStr"/>
-      <c r="G18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="H18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G18" s="7" t="inlineStr"/>
+      <c r="H18" s="7" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" s="10" t="n"/>
+      <c r="A19" s="9" t="n"/>
       <c r="B19" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C19" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C19" s="7" t="inlineStr"/>
       <c r="D19" s="7" t="inlineStr"/>
       <c r="E19" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL06
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+GV: Lê Văn C
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="F19" s="7" t="inlineStr"/>
       <c r="G19" s="7" t="inlineStr"/>
-      <c r="H19" s="7" t="inlineStr"/>
-    </row>
-    <row r="20" ht="60" customHeight="1">
-      <c r="A20" s="6" t="inlineStr">
+      <c r="H19" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="n"/>
+      <c r="B20" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C20" s="7" t="inlineStr"/>
+      <c r="D20" s="7" t="inlineStr"/>
+      <c r="E20" s="7" t="inlineStr"/>
+      <c r="F20" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G20" s="7" t="inlineStr"/>
+      <c r="H20" s="7" t="inlineStr"/>
+    </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="6" t="inlineStr">
         <is>
           <t>T2
 (19:30-21:30)</t>
         </is>
       </c>
-      <c r="B20" s="7" t="inlineStr">
-        <is>
-          <t>LAB03</t>
-        </is>
-      </c>
-      <c r="C20" s="7" t="inlineStr"/>
-      <c r="D20" s="7" t="inlineStr"/>
-      <c r="E20" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="F20" s="7" t="inlineStr"/>
-      <c r="G20" s="7" t="inlineStr"/>
-      <c r="H20" s="7" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="10" t="n"/>
       <c r="B21" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C21" s="7" t="inlineStr"/>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C21" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="D21" s="7" t="inlineStr"/>
       <c r="E21" s="7" t="inlineStr"/>
       <c r="F21" s="7" t="inlineStr"/>
       <c r="G21" s="7" t="inlineStr"/>
-      <c r="H21" s="8" t="inlineStr">
+      <c r="H21" s="7" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="9" t="n"/>
+      <c r="B22" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C22" s="7" t="inlineStr"/>
+      <c r="D22" s="7" t="inlineStr"/>
+      <c r="E22" s="7" t="inlineStr"/>
+      <c r="F22" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G22" s="7" t="inlineStr"/>
+      <c r="H22" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL07
 Môn: Cơ sở dữ liệu
@@ -2907,27 +2928,6 @@
 (Lý thuyết)</t>
         </is>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="10" t="n"/>
-      <c r="B22" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C22" s="7" t="inlineStr"/>
-      <c r="D22" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E22" s="7" t="inlineStr"/>
-      <c r="F22" s="7" t="inlineStr"/>
-      <c r="G22" s="7" t="inlineStr"/>
-      <c r="H22" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3044,61 +3044,54 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+GV: Lê Văn C
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>S2
-(09:00-11:00)</t>
-        </is>
-      </c>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="10" t="n"/>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2
+(09:00-11:00)</t>
+        </is>
+      </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB03</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
@@ -3106,150 +3099,157 @@
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="H10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="n"/>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Thực hành)</t>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="10" t="n"/>
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr"/>
-      <c r="D12" s="7" t="inlineStr"/>
+      <c r="D12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13">
-      <c r="A13" s="10" t="n"/>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E13" s="7" t="inlineStr"/>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="F13" s="7" t="inlineStr"/>
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="inlineStr"/>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F14" s="7" t="inlineStr"/>
+      <c r="G14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="9" t="n"/>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr"/>
+      <c r="D15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="6" t="inlineStr">
         <is>
           <t>C2
 (15:00-17:00)</t>
         </is>
       </c>
-      <c r="B14" s="7" t="inlineStr">
+      <c r="B16" s="7" t="inlineStr">
         <is>
           <t>LAB02</t>
         </is>
       </c>
-      <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="9" t="inlineStr">
+      <c r="C16" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL06
 Môn: Cơ sở dữ liệu
 GV: Nguyễn Văn A
 (Thực hành)</t>
-        </is>
-      </c>
-      <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G14" s="7" t="inlineStr"/>
-      <c r="H14" s="7" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="10" t="n"/>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>LAB03</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="7" t="inlineStr"/>
-      <c r="E15" s="7" t="inlineStr"/>
-      <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H15" s="7" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="10" t="n"/>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
         </is>
       </c>
       <c r="D16" s="7" t="inlineStr"/>
@@ -3258,134 +3258,155 @@
       <c r="G16" s="7" t="inlineStr"/>
       <c r="H16" s="7" t="inlineStr"/>
     </row>
-    <row r="17" ht="60" customHeight="1">
-      <c r="A17" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+    <row r="17">
+      <c r="A17" s="9" t="n"/>
       <c r="B17" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C17" s="7" t="inlineStr"/>
-      <c r="D17" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E17" s="7" t="inlineStr"/>
+      <c r="D17" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E17" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F17" s="7" t="inlineStr"/>
       <c r="G17" s="7" t="inlineStr"/>
       <c r="H17" s="7" t="inlineStr"/>
     </row>
-    <row r="18">
-      <c r="A18" s="10" t="n"/>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B18" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C18" s="8" t="inlineStr">
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C18" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL07
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Lý thuyết)</t>
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
         </is>
       </c>
       <c r="D18" s="7" t="inlineStr"/>
       <c r="E18" s="7" t="inlineStr"/>
       <c r="F18" s="7" t="inlineStr"/>
-      <c r="G18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="H18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G18" s="7" t="inlineStr"/>
+      <c r="H18" s="7" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" s="10" t="n"/>
+      <c r="A19" s="9" t="n"/>
       <c r="B19" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C19" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C19" s="7" t="inlineStr"/>
       <c r="D19" s="7" t="inlineStr"/>
       <c r="E19" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL06
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+GV: Lê Văn C
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="F19" s="7" t="inlineStr"/>
       <c r="G19" s="7" t="inlineStr"/>
-      <c r="H19" s="7" t="inlineStr"/>
-    </row>
-    <row r="20" ht="60" customHeight="1">
-      <c r="A20" s="6" t="inlineStr">
+      <c r="H19" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="n"/>
+      <c r="B20" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C20" s="7" t="inlineStr"/>
+      <c r="D20" s="7" t="inlineStr"/>
+      <c r="E20" s="7" t="inlineStr"/>
+      <c r="F20" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G20" s="7" t="inlineStr"/>
+      <c r="H20" s="7" t="inlineStr"/>
+    </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="6" t="inlineStr">
         <is>
           <t>T2
 (19:30-21:30)</t>
         </is>
       </c>
-      <c r="B20" s="7" t="inlineStr">
-        <is>
-          <t>LAB03</t>
-        </is>
-      </c>
-      <c r="C20" s="7" t="inlineStr"/>
-      <c r="D20" s="7" t="inlineStr"/>
-      <c r="E20" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="F20" s="7" t="inlineStr"/>
-      <c r="G20" s="7" t="inlineStr"/>
-      <c r="H20" s="7" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="10" t="n"/>
       <c r="B21" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C21" s="7" t="inlineStr"/>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C21" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="D21" s="7" t="inlineStr"/>
       <c r="E21" s="7" t="inlineStr"/>
       <c r="F21" s="7" t="inlineStr"/>
       <c r="G21" s="7" t="inlineStr"/>
-      <c r="H21" s="8" t="inlineStr">
+      <c r="H21" s="7" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="9" t="n"/>
+      <c r="B22" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C22" s="7" t="inlineStr"/>
+      <c r="D22" s="7" t="inlineStr"/>
+      <c r="E22" s="7" t="inlineStr"/>
+      <c r="F22" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G22" s="7" t="inlineStr"/>
+      <c r="H22" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL07
 Môn: Cơ sở dữ liệu
@@ -3393,27 +3414,6 @@
 (Lý thuyết)</t>
         </is>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="10" t="n"/>
-      <c r="B22" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C22" s="7" t="inlineStr"/>
-      <c r="D22" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E22" s="7" t="inlineStr"/>
-      <c r="F22" s="7" t="inlineStr"/>
-      <c r="G22" s="7" t="inlineStr"/>
-      <c r="H22" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3530,61 +3530,54 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+GV: Lê Văn C
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>S2
-(09:00-11:00)</t>
-        </is>
-      </c>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="10" t="n"/>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2
+(09:00-11:00)</t>
+        </is>
+      </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB03</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
@@ -3592,150 +3585,157 @@
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="H10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="n"/>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Thực hành)</t>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="10" t="n"/>
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr"/>
-      <c r="D12" s="7" t="inlineStr"/>
+      <c r="D12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13">
-      <c r="A13" s="10" t="n"/>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E13" s="7" t="inlineStr"/>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="F13" s="7" t="inlineStr"/>
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="inlineStr"/>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F14" s="7" t="inlineStr"/>
+      <c r="G14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="9" t="n"/>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr"/>
+      <c r="D15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="6" t="inlineStr">
         <is>
           <t>C2
 (15:00-17:00)</t>
         </is>
       </c>
-      <c r="B14" s="7" t="inlineStr">
+      <c r="B16" s="7" t="inlineStr">
         <is>
           <t>LAB02</t>
         </is>
       </c>
-      <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="9" t="inlineStr">
+      <c r="C16" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL06
 Môn: Cơ sở dữ liệu
 GV: Nguyễn Văn A
 (Thực hành)</t>
-        </is>
-      </c>
-      <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G14" s="7" t="inlineStr"/>
-      <c r="H14" s="7" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="10" t="n"/>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>LAB03</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="7" t="inlineStr"/>
-      <c r="E15" s="7" t="inlineStr"/>
-      <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H15" s="7" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="10" t="n"/>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
         </is>
       </c>
       <c r="D16" s="7" t="inlineStr"/>
@@ -3744,134 +3744,155 @@
       <c r="G16" s="7" t="inlineStr"/>
       <c r="H16" s="7" t="inlineStr"/>
     </row>
-    <row r="17" ht="60" customHeight="1">
-      <c r="A17" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+    <row r="17">
+      <c r="A17" s="9" t="n"/>
       <c r="B17" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C17" s="7" t="inlineStr"/>
-      <c r="D17" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E17" s="7" t="inlineStr"/>
+      <c r="D17" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E17" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F17" s="7" t="inlineStr"/>
       <c r="G17" s="7" t="inlineStr"/>
       <c r="H17" s="7" t="inlineStr"/>
     </row>
-    <row r="18">
-      <c r="A18" s="10" t="n"/>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B18" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C18" s="8" t="inlineStr">
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C18" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL07
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Lý thuyết)</t>
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
         </is>
       </c>
       <c r="D18" s="7" t="inlineStr"/>
       <c r="E18" s="7" t="inlineStr"/>
       <c r="F18" s="7" t="inlineStr"/>
-      <c r="G18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="H18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G18" s="7" t="inlineStr"/>
+      <c r="H18" s="7" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" s="10" t="n"/>
+      <c r="A19" s="9" t="n"/>
       <c r="B19" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C19" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C19" s="7" t="inlineStr"/>
       <c r="D19" s="7" t="inlineStr"/>
       <c r="E19" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL06
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+GV: Lê Văn C
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="F19" s="7" t="inlineStr"/>
       <c r="G19" s="7" t="inlineStr"/>
-      <c r="H19" s="7" t="inlineStr"/>
-    </row>
-    <row r="20" ht="60" customHeight="1">
-      <c r="A20" s="6" t="inlineStr">
+      <c r="H19" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="n"/>
+      <c r="B20" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C20" s="7" t="inlineStr"/>
+      <c r="D20" s="7" t="inlineStr"/>
+      <c r="E20" s="7" t="inlineStr"/>
+      <c r="F20" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G20" s="7" t="inlineStr"/>
+      <c r="H20" s="7" t="inlineStr"/>
+    </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="6" t="inlineStr">
         <is>
           <t>T2
 (19:30-21:30)</t>
         </is>
       </c>
-      <c r="B20" s="7" t="inlineStr">
-        <is>
-          <t>LAB03</t>
-        </is>
-      </c>
-      <c r="C20" s="7" t="inlineStr"/>
-      <c r="D20" s="7" t="inlineStr"/>
-      <c r="E20" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="F20" s="7" t="inlineStr"/>
-      <c r="G20" s="7" t="inlineStr"/>
-      <c r="H20" s="7" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="10" t="n"/>
       <c r="B21" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C21" s="7" t="inlineStr"/>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C21" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="D21" s="7" t="inlineStr"/>
       <c r="E21" s="7" t="inlineStr"/>
       <c r="F21" s="7" t="inlineStr"/>
       <c r="G21" s="7" t="inlineStr"/>
-      <c r="H21" s="8" t="inlineStr">
+      <c r="H21" s="7" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="9" t="n"/>
+      <c r="B22" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C22" s="7" t="inlineStr"/>
+      <c r="D22" s="7" t="inlineStr"/>
+      <c r="E22" s="7" t="inlineStr"/>
+      <c r="F22" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G22" s="7" t="inlineStr"/>
+      <c r="H22" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL07
 Môn: Cơ sở dữ liệu
@@ -3879,27 +3900,6 @@
 (Lý thuyết)</t>
         </is>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="10" t="n"/>
-      <c r="B22" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C22" s="7" t="inlineStr"/>
-      <c r="D22" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E22" s="7" t="inlineStr"/>
-      <c r="F22" s="7" t="inlineStr"/>
-      <c r="G22" s="7" t="inlineStr"/>
-      <c r="H22" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4016,61 +4016,54 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+GV: Lê Văn C
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>S2
-(09:00-11:00)</t>
-        </is>
-      </c>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="10" t="n"/>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2
+(09:00-11:00)</t>
+        </is>
+      </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB03</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
@@ -4078,150 +4071,157 @@
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="H10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="n"/>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Thực hành)</t>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="10" t="n"/>
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr"/>
-      <c r="D12" s="7" t="inlineStr"/>
+      <c r="D12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13">
-      <c r="A13" s="10" t="n"/>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E13" s="7" t="inlineStr"/>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="F13" s="7" t="inlineStr"/>
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="inlineStr"/>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F14" s="7" t="inlineStr"/>
+      <c r="G14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="9" t="n"/>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr"/>
+      <c r="D15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="6" t="inlineStr">
         <is>
           <t>C2
 (15:00-17:00)</t>
         </is>
       </c>
-      <c r="B14" s="7" t="inlineStr">
+      <c r="B16" s="7" t="inlineStr">
         <is>
           <t>LAB02</t>
         </is>
       </c>
-      <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="9" t="inlineStr">
+      <c r="C16" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL06
 Môn: Cơ sở dữ liệu
 GV: Nguyễn Văn A
 (Thực hành)</t>
-        </is>
-      </c>
-      <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G14" s="7" t="inlineStr"/>
-      <c r="H14" s="7" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="10" t="n"/>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>LAB03</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="7" t="inlineStr"/>
-      <c r="E15" s="7" t="inlineStr"/>
-      <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H15" s="7" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="10" t="n"/>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
         </is>
       </c>
       <c r="D16" s="7" t="inlineStr"/>
@@ -4230,134 +4230,155 @@
       <c r="G16" s="7" t="inlineStr"/>
       <c r="H16" s="7" t="inlineStr"/>
     </row>
-    <row r="17" ht="60" customHeight="1">
-      <c r="A17" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+    <row r="17">
+      <c r="A17" s="9" t="n"/>
       <c r="B17" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C17" s="7" t="inlineStr"/>
-      <c r="D17" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E17" s="7" t="inlineStr"/>
+      <c r="D17" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E17" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F17" s="7" t="inlineStr"/>
       <c r="G17" s="7" t="inlineStr"/>
       <c r="H17" s="7" t="inlineStr"/>
     </row>
-    <row r="18">
-      <c r="A18" s="10" t="n"/>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B18" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C18" s="8" t="inlineStr">
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C18" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL07
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Lý thuyết)</t>
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
         </is>
       </c>
       <c r="D18" s="7" t="inlineStr"/>
       <c r="E18" s="7" t="inlineStr"/>
       <c r="F18" s="7" t="inlineStr"/>
-      <c r="G18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="H18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G18" s="7" t="inlineStr"/>
+      <c r="H18" s="7" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" s="10" t="n"/>
+      <c r="A19" s="9" t="n"/>
       <c r="B19" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C19" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C19" s="7" t="inlineStr"/>
       <c r="D19" s="7" t="inlineStr"/>
       <c r="E19" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL06
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+GV: Lê Văn C
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="F19" s="7" t="inlineStr"/>
       <c r="G19" s="7" t="inlineStr"/>
-      <c r="H19" s="7" t="inlineStr"/>
-    </row>
-    <row r="20" ht="60" customHeight="1">
-      <c r="A20" s="6" t="inlineStr">
+      <c r="H19" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="n"/>
+      <c r="B20" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C20" s="7" t="inlineStr"/>
+      <c r="D20" s="7" t="inlineStr"/>
+      <c r="E20" s="7" t="inlineStr"/>
+      <c r="F20" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G20" s="7" t="inlineStr"/>
+      <c r="H20" s="7" t="inlineStr"/>
+    </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="6" t="inlineStr">
         <is>
           <t>T2
 (19:30-21:30)</t>
         </is>
       </c>
-      <c r="B20" s="7" t="inlineStr">
-        <is>
-          <t>LAB03</t>
-        </is>
-      </c>
-      <c r="C20" s="7" t="inlineStr"/>
-      <c r="D20" s="7" t="inlineStr"/>
-      <c r="E20" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="F20" s="7" t="inlineStr"/>
-      <c r="G20" s="7" t="inlineStr"/>
-      <c r="H20" s="7" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="10" t="n"/>
       <c r="B21" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C21" s="7" t="inlineStr"/>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C21" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="D21" s="7" t="inlineStr"/>
       <c r="E21" s="7" t="inlineStr"/>
       <c r="F21" s="7" t="inlineStr"/>
       <c r="G21" s="7" t="inlineStr"/>
-      <c r="H21" s="8" t="inlineStr">
+      <c r="H21" s="7" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="9" t="n"/>
+      <c r="B22" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C22" s="7" t="inlineStr"/>
+      <c r="D22" s="7" t="inlineStr"/>
+      <c r="E22" s="7" t="inlineStr"/>
+      <c r="F22" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G22" s="7" t="inlineStr"/>
+      <c r="H22" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL07
 Môn: Cơ sở dữ liệu
@@ -4365,27 +4386,6 @@
 (Lý thuyết)</t>
         </is>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="10" t="n"/>
-      <c r="B22" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C22" s="7" t="inlineStr"/>
-      <c r="D22" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E22" s="7" t="inlineStr"/>
-      <c r="F22" s="7" t="inlineStr"/>
-      <c r="G22" s="7" t="inlineStr"/>
-      <c r="H22" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4502,61 +4502,54 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+GV: Lê Văn C
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>S2
-(09:00-11:00)</t>
-        </is>
-      </c>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="10" t="n"/>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2
+(09:00-11:00)</t>
+        </is>
+      </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB03</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
@@ -4564,150 +4557,157 @@
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="H10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="n"/>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Thực hành)</t>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="10" t="n"/>
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr"/>
-      <c r="D12" s="7" t="inlineStr"/>
+      <c r="D12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13">
-      <c r="A13" s="10" t="n"/>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E13" s="7" t="inlineStr"/>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="F13" s="7" t="inlineStr"/>
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="inlineStr"/>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F14" s="7" t="inlineStr"/>
+      <c r="G14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="9" t="n"/>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr"/>
+      <c r="D15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="6" t="inlineStr">
         <is>
           <t>C2
 (15:00-17:00)</t>
         </is>
       </c>
-      <c r="B14" s="7" t="inlineStr">
+      <c r="B16" s="7" t="inlineStr">
         <is>
           <t>LAB02</t>
         </is>
       </c>
-      <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="9" t="inlineStr">
+      <c r="C16" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL06
 Môn: Cơ sở dữ liệu
 GV: Nguyễn Văn A
 (Thực hành)</t>
-        </is>
-      </c>
-      <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G14" s="7" t="inlineStr"/>
-      <c r="H14" s="7" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="10" t="n"/>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>LAB03</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="7" t="inlineStr"/>
-      <c r="E15" s="7" t="inlineStr"/>
-      <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H15" s="7" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="10" t="n"/>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
         </is>
       </c>
       <c r="D16" s="7" t="inlineStr"/>
@@ -4716,134 +4716,155 @@
       <c r="G16" s="7" t="inlineStr"/>
       <c r="H16" s="7" t="inlineStr"/>
     </row>
-    <row r="17" ht="60" customHeight="1">
-      <c r="A17" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+    <row r="17">
+      <c r="A17" s="9" t="n"/>
       <c r="B17" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C17" s="7" t="inlineStr"/>
-      <c r="D17" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E17" s="7" t="inlineStr"/>
+      <c r="D17" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E17" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F17" s="7" t="inlineStr"/>
       <c r="G17" s="7" t="inlineStr"/>
       <c r="H17" s="7" t="inlineStr"/>
     </row>
-    <row r="18">
-      <c r="A18" s="10" t="n"/>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B18" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C18" s="8" t="inlineStr">
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C18" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL07
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Lý thuyết)</t>
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
         </is>
       </c>
       <c r="D18" s="7" t="inlineStr"/>
       <c r="E18" s="7" t="inlineStr"/>
       <c r="F18" s="7" t="inlineStr"/>
-      <c r="G18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="H18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G18" s="7" t="inlineStr"/>
+      <c r="H18" s="7" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" s="10" t="n"/>
+      <c r="A19" s="9" t="n"/>
       <c r="B19" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C19" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C19" s="7" t="inlineStr"/>
       <c r="D19" s="7" t="inlineStr"/>
       <c r="E19" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL06
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+GV: Lê Văn C
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="F19" s="7" t="inlineStr"/>
       <c r="G19" s="7" t="inlineStr"/>
-      <c r="H19" s="7" t="inlineStr"/>
-    </row>
-    <row r="20" ht="60" customHeight="1">
-      <c r="A20" s="6" t="inlineStr">
+      <c r="H19" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="n"/>
+      <c r="B20" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C20" s="7" t="inlineStr"/>
+      <c r="D20" s="7" t="inlineStr"/>
+      <c r="E20" s="7" t="inlineStr"/>
+      <c r="F20" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G20" s="7" t="inlineStr"/>
+      <c r="H20" s="7" t="inlineStr"/>
+    </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="6" t="inlineStr">
         <is>
           <t>T2
 (19:30-21:30)</t>
         </is>
       </c>
-      <c r="B20" s="7" t="inlineStr">
-        <is>
-          <t>LAB03</t>
-        </is>
-      </c>
-      <c r="C20" s="7" t="inlineStr"/>
-      <c r="D20" s="7" t="inlineStr"/>
-      <c r="E20" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="F20" s="7" t="inlineStr"/>
-      <c r="G20" s="7" t="inlineStr"/>
-      <c r="H20" s="7" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="10" t="n"/>
       <c r="B21" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C21" s="7" t="inlineStr"/>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C21" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="D21" s="7" t="inlineStr"/>
       <c r="E21" s="7" t="inlineStr"/>
       <c r="F21" s="7" t="inlineStr"/>
       <c r="G21" s="7" t="inlineStr"/>
-      <c r="H21" s="8" t="inlineStr">
+      <c r="H21" s="7" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="9" t="n"/>
+      <c r="B22" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C22" s="7" t="inlineStr"/>
+      <c r="D22" s="7" t="inlineStr"/>
+      <c r="E22" s="7" t="inlineStr"/>
+      <c r="F22" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G22" s="7" t="inlineStr"/>
+      <c r="H22" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL07
 Môn: Cơ sở dữ liệu
@@ -4851,27 +4872,6 @@
 (Lý thuyết)</t>
         </is>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="10" t="n"/>
-      <c r="B22" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C22" s="7" t="inlineStr"/>
-      <c r="D22" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E22" s="7" t="inlineStr"/>
-      <c r="F22" s="7" t="inlineStr"/>
-      <c r="G22" s="7" t="inlineStr"/>
-      <c r="H22" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4988,61 +4988,54 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+GV: Lê Văn C
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>S2
-(09:00-11:00)</t>
-        </is>
-      </c>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="10" t="n"/>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2
+(09:00-11:00)</t>
+        </is>
+      </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB03</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
@@ -5050,150 +5043,157 @@
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="H10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="n"/>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Thực hành)</t>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="10" t="n"/>
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr"/>
-      <c r="D12" s="7" t="inlineStr"/>
+      <c r="D12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13">
-      <c r="A13" s="10" t="n"/>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E13" s="7" t="inlineStr"/>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="F13" s="7" t="inlineStr"/>
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="inlineStr"/>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F14" s="7" t="inlineStr"/>
+      <c r="G14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="9" t="n"/>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr"/>
+      <c r="D15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="6" t="inlineStr">
         <is>
           <t>C2
 (15:00-17:00)</t>
         </is>
       </c>
-      <c r="B14" s="7" t="inlineStr">
+      <c r="B16" s="7" t="inlineStr">
         <is>
           <t>LAB02</t>
         </is>
       </c>
-      <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="9" t="inlineStr">
+      <c r="C16" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL06
 Môn: Cơ sở dữ liệu
 GV: Nguyễn Văn A
 (Thực hành)</t>
-        </is>
-      </c>
-      <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G14" s="7" t="inlineStr"/>
-      <c r="H14" s="7" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="10" t="n"/>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>LAB03</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="7" t="inlineStr"/>
-      <c r="E15" s="7" t="inlineStr"/>
-      <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H15" s="7" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="10" t="n"/>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
         </is>
       </c>
       <c r="D16" s="7" t="inlineStr"/>
@@ -5202,134 +5202,155 @@
       <c r="G16" s="7" t="inlineStr"/>
       <c r="H16" s="7" t="inlineStr"/>
     </row>
-    <row r="17" ht="60" customHeight="1">
-      <c r="A17" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+    <row r="17">
+      <c r="A17" s="9" t="n"/>
       <c r="B17" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C17" s="7" t="inlineStr"/>
-      <c r="D17" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E17" s="7" t="inlineStr"/>
+      <c r="D17" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E17" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F17" s="7" t="inlineStr"/>
       <c r="G17" s="7" t="inlineStr"/>
       <c r="H17" s="7" t="inlineStr"/>
     </row>
-    <row r="18">
-      <c r="A18" s="10" t="n"/>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B18" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C18" s="8" t="inlineStr">
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C18" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL07
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Lý thuyết)</t>
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
         </is>
       </c>
       <c r="D18" s="7" t="inlineStr"/>
       <c r="E18" s="7" t="inlineStr"/>
       <c r="F18" s="7" t="inlineStr"/>
-      <c r="G18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="H18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G18" s="7" t="inlineStr"/>
+      <c r="H18" s="7" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" s="10" t="n"/>
+      <c r="A19" s="9" t="n"/>
       <c r="B19" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C19" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C19" s="7" t="inlineStr"/>
       <c r="D19" s="7" t="inlineStr"/>
       <c r="E19" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL06
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+GV: Lê Văn C
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="F19" s="7" t="inlineStr"/>
       <c r="G19" s="7" t="inlineStr"/>
-      <c r="H19" s="7" t="inlineStr"/>
-    </row>
-    <row r="20" ht="60" customHeight="1">
-      <c r="A20" s="6" t="inlineStr">
+      <c r="H19" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="n"/>
+      <c r="B20" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C20" s="7" t="inlineStr"/>
+      <c r="D20" s="7" t="inlineStr"/>
+      <c r="E20" s="7" t="inlineStr"/>
+      <c r="F20" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G20" s="7" t="inlineStr"/>
+      <c r="H20" s="7" t="inlineStr"/>
+    </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="6" t="inlineStr">
         <is>
           <t>T2
 (19:30-21:30)</t>
         </is>
       </c>
-      <c r="B20" s="7" t="inlineStr">
-        <is>
-          <t>LAB03</t>
-        </is>
-      </c>
-      <c r="C20" s="7" t="inlineStr"/>
-      <c r="D20" s="7" t="inlineStr"/>
-      <c r="E20" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="F20" s="7" t="inlineStr"/>
-      <c r="G20" s="7" t="inlineStr"/>
-      <c r="H20" s="7" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="10" t="n"/>
       <c r="B21" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C21" s="7" t="inlineStr"/>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C21" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="D21" s="7" t="inlineStr"/>
       <c r="E21" s="7" t="inlineStr"/>
       <c r="F21" s="7" t="inlineStr"/>
       <c r="G21" s="7" t="inlineStr"/>
-      <c r="H21" s="8" t="inlineStr">
+      <c r="H21" s="7" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="9" t="n"/>
+      <c r="B22" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C22" s="7" t="inlineStr"/>
+      <c r="D22" s="7" t="inlineStr"/>
+      <c r="E22" s="7" t="inlineStr"/>
+      <c r="F22" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G22" s="7" t="inlineStr"/>
+      <c r="H22" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL07
 Môn: Cơ sở dữ liệu
@@ -5337,27 +5358,6 @@
 (Lý thuyết)</t>
         </is>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="10" t="n"/>
-      <c r="B22" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C22" s="7" t="inlineStr"/>
-      <c r="D22" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E22" s="7" t="inlineStr"/>
-      <c r="F22" s="7" t="inlineStr"/>
-      <c r="G22" s="7" t="inlineStr"/>
-      <c r="H22" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5474,61 +5474,54 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+GV: Lê Văn C
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>S2
-(09:00-11:00)</t>
-        </is>
-      </c>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="10" t="n"/>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2
+(09:00-11:00)</t>
+        </is>
+      </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB03</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
@@ -5536,150 +5529,157 @@
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="H10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="n"/>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Thực hành)</t>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="10" t="n"/>
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr"/>
-      <c r="D12" s="7" t="inlineStr"/>
+      <c r="D12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13">
-      <c r="A13" s="10" t="n"/>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E13" s="7" t="inlineStr"/>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="F13" s="7" t="inlineStr"/>
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="inlineStr"/>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F14" s="7" t="inlineStr"/>
+      <c r="G14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="9" t="n"/>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr"/>
+      <c r="D15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="6" t="inlineStr">
         <is>
           <t>C2
 (15:00-17:00)</t>
         </is>
       </c>
-      <c r="B14" s="7" t="inlineStr">
+      <c r="B16" s="7" t="inlineStr">
         <is>
           <t>LAB02</t>
         </is>
       </c>
-      <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="9" t="inlineStr">
+      <c r="C16" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL06
 Môn: Cơ sở dữ liệu
 GV: Nguyễn Văn A
 (Thực hành)</t>
-        </is>
-      </c>
-      <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G14" s="7" t="inlineStr"/>
-      <c r="H14" s="7" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="10" t="n"/>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>LAB03</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="7" t="inlineStr"/>
-      <c r="E15" s="7" t="inlineStr"/>
-      <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H15" s="7" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="10" t="n"/>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
         </is>
       </c>
       <c r="D16" s="7" t="inlineStr"/>
@@ -5688,134 +5688,155 @@
       <c r="G16" s="7" t="inlineStr"/>
       <c r="H16" s="7" t="inlineStr"/>
     </row>
-    <row r="17" ht="60" customHeight="1">
-      <c r="A17" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+    <row r="17">
+      <c r="A17" s="9" t="n"/>
       <c r="B17" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C17" s="7" t="inlineStr"/>
-      <c r="D17" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E17" s="7" t="inlineStr"/>
+      <c r="D17" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E17" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F17" s="7" t="inlineStr"/>
       <c r="G17" s="7" t="inlineStr"/>
       <c r="H17" s="7" t="inlineStr"/>
     </row>
-    <row r="18">
-      <c r="A18" s="10" t="n"/>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B18" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C18" s="8" t="inlineStr">
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C18" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL07
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Lý thuyết)</t>
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
         </is>
       </c>
       <c r="D18" s="7" t="inlineStr"/>
       <c r="E18" s="7" t="inlineStr"/>
       <c r="F18" s="7" t="inlineStr"/>
-      <c r="G18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="H18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G18" s="7" t="inlineStr"/>
+      <c r="H18" s="7" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" s="10" t="n"/>
+      <c r="A19" s="9" t="n"/>
       <c r="B19" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C19" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C19" s="7" t="inlineStr"/>
       <c r="D19" s="7" t="inlineStr"/>
       <c r="E19" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL06
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+GV: Lê Văn C
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="F19" s="7" t="inlineStr"/>
       <c r="G19" s="7" t="inlineStr"/>
-      <c r="H19" s="7" t="inlineStr"/>
-    </row>
-    <row r="20" ht="60" customHeight="1">
-      <c r="A20" s="6" t="inlineStr">
+      <c r="H19" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="n"/>
+      <c r="B20" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C20" s="7" t="inlineStr"/>
+      <c r="D20" s="7" t="inlineStr"/>
+      <c r="E20" s="7" t="inlineStr"/>
+      <c r="F20" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G20" s="7" t="inlineStr"/>
+      <c r="H20" s="7" t="inlineStr"/>
+    </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="6" t="inlineStr">
         <is>
           <t>T2
 (19:30-21:30)</t>
         </is>
       </c>
-      <c r="B20" s="7" t="inlineStr">
-        <is>
-          <t>LAB03</t>
-        </is>
-      </c>
-      <c r="C20" s="7" t="inlineStr"/>
-      <c r="D20" s="7" t="inlineStr"/>
-      <c r="E20" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="F20" s="7" t="inlineStr"/>
-      <c r="G20" s="7" t="inlineStr"/>
-      <c r="H20" s="7" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="10" t="n"/>
       <c r="B21" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C21" s="7" t="inlineStr"/>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C21" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="D21" s="7" t="inlineStr"/>
       <c r="E21" s="7" t="inlineStr"/>
       <c r="F21" s="7" t="inlineStr"/>
       <c r="G21" s="7" t="inlineStr"/>
-      <c r="H21" s="8" t="inlineStr">
+      <c r="H21" s="7" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="9" t="n"/>
+      <c r="B22" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C22" s="7" t="inlineStr"/>
+      <c r="D22" s="7" t="inlineStr"/>
+      <c r="E22" s="7" t="inlineStr"/>
+      <c r="F22" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G22" s="7" t="inlineStr"/>
+      <c r="H22" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL07
 Môn: Cơ sở dữ liệu
@@ -5823,27 +5844,6 @@
 (Lý thuyết)</t>
         </is>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="10" t="n"/>
-      <c r="B22" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C22" s="7" t="inlineStr"/>
-      <c r="D22" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E22" s="7" t="inlineStr"/>
-      <c r="F22" s="7" t="inlineStr"/>
-      <c r="G22" s="7" t="inlineStr"/>
-      <c r="H22" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5960,61 +5960,54 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+GV: Lê Văn C
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>S2
-(09:00-11:00)</t>
-        </is>
-      </c>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="10" t="n"/>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2
+(09:00-11:00)</t>
+        </is>
+      </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB03</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
@@ -6022,150 +6015,157 @@
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="H10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="n"/>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Thực hành)</t>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="10" t="n"/>
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr"/>
-      <c r="D12" s="7" t="inlineStr"/>
+      <c r="D12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13">
-      <c r="A13" s="10" t="n"/>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E13" s="7" t="inlineStr"/>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="F13" s="7" t="inlineStr"/>
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="inlineStr"/>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F14" s="7" t="inlineStr"/>
+      <c r="G14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="9" t="n"/>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr"/>
+      <c r="D15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="6" t="inlineStr">
         <is>
           <t>C2
 (15:00-17:00)</t>
         </is>
       </c>
-      <c r="B14" s="7" t="inlineStr">
+      <c r="B16" s="7" t="inlineStr">
         <is>
           <t>LAB02</t>
         </is>
       </c>
-      <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="9" t="inlineStr">
+      <c r="C16" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL06
 Môn: Cơ sở dữ liệu
 GV: Nguyễn Văn A
 (Thực hành)</t>
-        </is>
-      </c>
-      <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G14" s="7" t="inlineStr"/>
-      <c r="H14" s="7" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="10" t="n"/>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>LAB03</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="7" t="inlineStr"/>
-      <c r="E15" s="7" t="inlineStr"/>
-      <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H15" s="7" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="10" t="n"/>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
         </is>
       </c>
       <c r="D16" s="7" t="inlineStr"/>
@@ -6174,134 +6174,155 @@
       <c r="G16" s="7" t="inlineStr"/>
       <c r="H16" s="7" t="inlineStr"/>
     </row>
-    <row r="17" ht="60" customHeight="1">
-      <c r="A17" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+    <row r="17">
+      <c r="A17" s="9" t="n"/>
       <c r="B17" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C17" s="7" t="inlineStr"/>
-      <c r="D17" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E17" s="7" t="inlineStr"/>
+      <c r="D17" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E17" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F17" s="7" t="inlineStr"/>
       <c r="G17" s="7" t="inlineStr"/>
       <c r="H17" s="7" t="inlineStr"/>
     </row>
-    <row r="18">
-      <c r="A18" s="10" t="n"/>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B18" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C18" s="8" t="inlineStr">
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C18" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL07
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Lý thuyết)</t>
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
         </is>
       </c>
       <c r="D18" s="7" t="inlineStr"/>
       <c r="E18" s="7" t="inlineStr"/>
       <c r="F18" s="7" t="inlineStr"/>
-      <c r="G18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="H18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G18" s="7" t="inlineStr"/>
+      <c r="H18" s="7" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" s="10" t="n"/>
+      <c r="A19" s="9" t="n"/>
       <c r="B19" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C19" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C19" s="7" t="inlineStr"/>
       <c r="D19" s="7" t="inlineStr"/>
       <c r="E19" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL06
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+GV: Lê Văn C
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="F19" s="7" t="inlineStr"/>
       <c r="G19" s="7" t="inlineStr"/>
-      <c r="H19" s="7" t="inlineStr"/>
-    </row>
-    <row r="20" ht="60" customHeight="1">
-      <c r="A20" s="6" t="inlineStr">
+      <c r="H19" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="n"/>
+      <c r="B20" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C20" s="7" t="inlineStr"/>
+      <c r="D20" s="7" t="inlineStr"/>
+      <c r="E20" s="7" t="inlineStr"/>
+      <c r="F20" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G20" s="7" t="inlineStr"/>
+      <c r="H20" s="7" t="inlineStr"/>
+    </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="6" t="inlineStr">
         <is>
           <t>T2
 (19:30-21:30)</t>
         </is>
       </c>
-      <c r="B20" s="7" t="inlineStr">
-        <is>
-          <t>LAB03</t>
-        </is>
-      </c>
-      <c r="C20" s="7" t="inlineStr"/>
-      <c r="D20" s="7" t="inlineStr"/>
-      <c r="E20" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="F20" s="7" t="inlineStr"/>
-      <c r="G20" s="7" t="inlineStr"/>
-      <c r="H20" s="7" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="10" t="n"/>
       <c r="B21" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C21" s="7" t="inlineStr"/>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C21" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="D21" s="7" t="inlineStr"/>
       <c r="E21" s="7" t="inlineStr"/>
       <c r="F21" s="7" t="inlineStr"/>
       <c r="G21" s="7" t="inlineStr"/>
-      <c r="H21" s="8" t="inlineStr">
+      <c r="H21" s="7" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="9" t="n"/>
+      <c r="B22" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C22" s="7" t="inlineStr"/>
+      <c r="D22" s="7" t="inlineStr"/>
+      <c r="E22" s="7" t="inlineStr"/>
+      <c r="F22" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G22" s="7" t="inlineStr"/>
+      <c r="H22" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL07
 Môn: Cơ sở dữ liệu
@@ -6309,27 +6330,6 @@
 (Lý thuyết)</t>
         </is>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="10" t="n"/>
-      <c r="B22" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C22" s="7" t="inlineStr"/>
-      <c r="D22" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E22" s="7" t="inlineStr"/>
-      <c r="F22" s="7" t="inlineStr"/>
-      <c r="G22" s="7" t="inlineStr"/>
-      <c r="H22" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6446,61 +6446,54 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+GV: Lê Văn C
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>S2
-(09:00-11:00)</t>
-        </is>
-      </c>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="10" t="n"/>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2
+(09:00-11:00)</t>
+        </is>
+      </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB03</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
@@ -6508,150 +6501,157 @@
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="H10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="n"/>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Thực hành)</t>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="10" t="n"/>
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr"/>
-      <c r="D12" s="7" t="inlineStr"/>
+      <c r="D12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13">
-      <c r="A13" s="10" t="n"/>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E13" s="7" t="inlineStr"/>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="F13" s="7" t="inlineStr"/>
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="inlineStr"/>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F14" s="7" t="inlineStr"/>
+      <c r="G14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="9" t="n"/>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr"/>
+      <c r="D15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="6" t="inlineStr">
         <is>
           <t>C2
 (15:00-17:00)</t>
         </is>
       </c>
-      <c r="B14" s="7" t="inlineStr">
+      <c r="B16" s="7" t="inlineStr">
         <is>
           <t>LAB02</t>
         </is>
       </c>
-      <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="9" t="inlineStr">
+      <c r="C16" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL06
 Môn: Cơ sở dữ liệu
 GV: Nguyễn Văn A
 (Thực hành)</t>
-        </is>
-      </c>
-      <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G14" s="7" t="inlineStr"/>
-      <c r="H14" s="7" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="10" t="n"/>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>LAB03</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="7" t="inlineStr"/>
-      <c r="E15" s="7" t="inlineStr"/>
-      <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H15" s="7" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="10" t="n"/>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
         </is>
       </c>
       <c r="D16" s="7" t="inlineStr"/>
@@ -6660,134 +6660,155 @@
       <c r="G16" s="7" t="inlineStr"/>
       <c r="H16" s="7" t="inlineStr"/>
     </row>
-    <row r="17" ht="60" customHeight="1">
-      <c r="A17" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+    <row r="17">
+      <c r="A17" s="9" t="n"/>
       <c r="B17" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C17" s="7" t="inlineStr"/>
-      <c r="D17" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E17" s="7" t="inlineStr"/>
+      <c r="D17" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E17" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F17" s="7" t="inlineStr"/>
       <c r="G17" s="7" t="inlineStr"/>
       <c r="H17" s="7" t="inlineStr"/>
     </row>
-    <row r="18">
-      <c r="A18" s="10" t="n"/>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B18" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C18" s="8" t="inlineStr">
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C18" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL07
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Lý thuyết)</t>
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
         </is>
       </c>
       <c r="D18" s="7" t="inlineStr"/>
       <c r="E18" s="7" t="inlineStr"/>
       <c r="F18" s="7" t="inlineStr"/>
-      <c r="G18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="H18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G18" s="7" t="inlineStr"/>
+      <c r="H18" s="7" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" s="10" t="n"/>
+      <c r="A19" s="9" t="n"/>
       <c r="B19" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C19" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C19" s="7" t="inlineStr"/>
       <c r="D19" s="7" t="inlineStr"/>
       <c r="E19" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL06
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+GV: Lê Văn C
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="F19" s="7" t="inlineStr"/>
       <c r="G19" s="7" t="inlineStr"/>
-      <c r="H19" s="7" t="inlineStr"/>
-    </row>
-    <row r="20" ht="60" customHeight="1">
-      <c r="A20" s="6" t="inlineStr">
+      <c r="H19" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="n"/>
+      <c r="B20" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C20" s="7" t="inlineStr"/>
+      <c r="D20" s="7" t="inlineStr"/>
+      <c r="E20" s="7" t="inlineStr"/>
+      <c r="F20" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G20" s="7" t="inlineStr"/>
+      <c r="H20" s="7" t="inlineStr"/>
+    </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="6" t="inlineStr">
         <is>
           <t>T2
 (19:30-21:30)</t>
         </is>
       </c>
-      <c r="B20" s="7" t="inlineStr">
-        <is>
-          <t>LAB03</t>
-        </is>
-      </c>
-      <c r="C20" s="7" t="inlineStr"/>
-      <c r="D20" s="7" t="inlineStr"/>
-      <c r="E20" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="F20" s="7" t="inlineStr"/>
-      <c r="G20" s="7" t="inlineStr"/>
-      <c r="H20" s="7" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="10" t="n"/>
       <c r="B21" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C21" s="7" t="inlineStr"/>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C21" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="D21" s="7" t="inlineStr"/>
       <c r="E21" s="7" t="inlineStr"/>
       <c r="F21" s="7" t="inlineStr"/>
       <c r="G21" s="7" t="inlineStr"/>
-      <c r="H21" s="8" t="inlineStr">
+      <c r="H21" s="7" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="9" t="n"/>
+      <c r="B22" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C22" s="7" t="inlineStr"/>
+      <c r="D22" s="7" t="inlineStr"/>
+      <c r="E22" s="7" t="inlineStr"/>
+      <c r="F22" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G22" s="7" t="inlineStr"/>
+      <c r="H22" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL07
 Môn: Cơ sở dữ liệu
@@ -6795,27 +6816,6 @@
 (Lý thuyết)</t>
         </is>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="10" t="n"/>
-      <c r="B22" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C22" s="7" t="inlineStr"/>
-      <c r="D22" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E22" s="7" t="inlineStr"/>
-      <c r="F22" s="7" t="inlineStr"/>
-      <c r="G22" s="7" t="inlineStr"/>
-      <c r="H22" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6932,61 +6932,54 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+GV: Lê Văn C
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>S2
-(09:00-11:00)</t>
-        </is>
-      </c>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="10" t="n"/>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2
+(09:00-11:00)</t>
+        </is>
+      </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB03</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
@@ -6994,150 +6987,157 @@
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="H10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="n"/>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Thực hành)</t>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="10" t="n"/>
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr"/>
-      <c r="D12" s="7" t="inlineStr"/>
+      <c r="D12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13">
-      <c r="A13" s="10" t="n"/>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E13" s="7" t="inlineStr"/>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="F13" s="7" t="inlineStr"/>
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="inlineStr"/>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F14" s="7" t="inlineStr"/>
+      <c r="G14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="9" t="n"/>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr"/>
+      <c r="D15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="6" t="inlineStr">
         <is>
           <t>C2
 (15:00-17:00)</t>
         </is>
       </c>
-      <c r="B14" s="7" t="inlineStr">
+      <c r="B16" s="7" t="inlineStr">
         <is>
           <t>LAB02</t>
         </is>
       </c>
-      <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="9" t="inlineStr">
+      <c r="C16" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL06
 Môn: Cơ sở dữ liệu
 GV: Nguyễn Văn A
 (Thực hành)</t>
-        </is>
-      </c>
-      <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G14" s="7" t="inlineStr"/>
-      <c r="H14" s="7" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="10" t="n"/>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>LAB03</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="7" t="inlineStr"/>
-      <c r="E15" s="7" t="inlineStr"/>
-      <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H15" s="7" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="10" t="n"/>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
         </is>
       </c>
       <c r="D16" s="7" t="inlineStr"/>
@@ -7146,134 +7146,155 @@
       <c r="G16" s="7" t="inlineStr"/>
       <c r="H16" s="7" t="inlineStr"/>
     </row>
-    <row r="17" ht="60" customHeight="1">
-      <c r="A17" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+    <row r="17">
+      <c r="A17" s="9" t="n"/>
       <c r="B17" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C17" s="7" t="inlineStr"/>
-      <c r="D17" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E17" s="7" t="inlineStr"/>
+      <c r="D17" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E17" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F17" s="7" t="inlineStr"/>
       <c r="G17" s="7" t="inlineStr"/>
       <c r="H17" s="7" t="inlineStr"/>
     </row>
-    <row r="18">
-      <c r="A18" s="10" t="n"/>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B18" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C18" s="8" t="inlineStr">
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C18" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL07
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Lý thuyết)</t>
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
         </is>
       </c>
       <c r="D18" s="7" t="inlineStr"/>
       <c r="E18" s="7" t="inlineStr"/>
       <c r="F18" s="7" t="inlineStr"/>
-      <c r="G18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="H18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G18" s="7" t="inlineStr"/>
+      <c r="H18" s="7" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" s="10" t="n"/>
+      <c r="A19" s="9" t="n"/>
       <c r="B19" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C19" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C19" s="7" t="inlineStr"/>
       <c r="D19" s="7" t="inlineStr"/>
       <c r="E19" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL06
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+GV: Lê Văn C
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="F19" s="7" t="inlineStr"/>
       <c r="G19" s="7" t="inlineStr"/>
-      <c r="H19" s="7" t="inlineStr"/>
-    </row>
-    <row r="20" ht="60" customHeight="1">
-      <c r="A20" s="6" t="inlineStr">
+      <c r="H19" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="n"/>
+      <c r="B20" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C20" s="7" t="inlineStr"/>
+      <c r="D20" s="7" t="inlineStr"/>
+      <c r="E20" s="7" t="inlineStr"/>
+      <c r="F20" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G20" s="7" t="inlineStr"/>
+      <c r="H20" s="7" t="inlineStr"/>
+    </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="6" t="inlineStr">
         <is>
           <t>T2
 (19:30-21:30)</t>
         </is>
       </c>
-      <c r="B20" s="7" t="inlineStr">
-        <is>
-          <t>LAB03</t>
-        </is>
-      </c>
-      <c r="C20" s="7" t="inlineStr"/>
-      <c r="D20" s="7" t="inlineStr"/>
-      <c r="E20" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="F20" s="7" t="inlineStr"/>
-      <c r="G20" s="7" t="inlineStr"/>
-      <c r="H20" s="7" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="10" t="n"/>
       <c r="B21" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C21" s="7" t="inlineStr"/>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C21" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="D21" s="7" t="inlineStr"/>
       <c r="E21" s="7" t="inlineStr"/>
       <c r="F21" s="7" t="inlineStr"/>
       <c r="G21" s="7" t="inlineStr"/>
-      <c r="H21" s="8" t="inlineStr">
+      <c r="H21" s="7" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="9" t="n"/>
+      <c r="B22" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C22" s="7" t="inlineStr"/>
+      <c r="D22" s="7" t="inlineStr"/>
+      <c r="E22" s="7" t="inlineStr"/>
+      <c r="F22" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G22" s="7" t="inlineStr"/>
+      <c r="H22" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL07
 Môn: Cơ sở dữ liệu
@@ -7281,27 +7302,6 @@
 (Lý thuyết)</t>
         </is>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="10" t="n"/>
-      <c r="B22" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C22" s="7" t="inlineStr"/>
-      <c r="D22" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E22" s="7" t="inlineStr"/>
-      <c r="F22" s="7" t="inlineStr"/>
-      <c r="G22" s="7" t="inlineStr"/>
-      <c r="H22" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7418,61 +7418,54 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+GV: Lê Văn C
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>S2
-(09:00-11:00)</t>
-        </is>
-      </c>
+      <c r="H8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="10" t="n"/>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2
+(09:00-11:00)</t>
+        </is>
+      </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB03</t>
         </is>
       </c>
       <c r="C10" s="7" t="inlineStr"/>
@@ -7480,150 +7473,157 @@
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+      <c r="H10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="n"/>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Thực hành)</t>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="H11" s="7" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="10" t="n"/>
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C12" s="7" t="inlineStr"/>
-      <c r="D12" s="7" t="inlineStr"/>
+      <c r="D12" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
     </row>
-    <row r="13">
-      <c r="A13" s="10" t="n"/>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB01</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E13" s="7" t="inlineStr"/>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="F13" s="7" t="inlineStr"/>
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
     </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="inlineStr"/>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="F14" s="7" t="inlineStr"/>
+      <c r="G14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="H14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Thực hành)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="9" t="n"/>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="inlineStr"/>
+      <c r="D15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="6" t="inlineStr">
         <is>
           <t>C2
 (15:00-17:00)</t>
         </is>
       </c>
-      <c r="B14" s="7" t="inlineStr">
+      <c r="B16" s="7" t="inlineStr">
         <is>
           <t>LAB02</t>
         </is>
       </c>
-      <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="9" t="inlineStr">
+      <c r="C16" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL06
 Môn: Cơ sở dữ liệu
 GV: Nguyễn Văn A
 (Thực hành)</t>
-        </is>
-      </c>
-      <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="G14" s="7" t="inlineStr"/>
-      <c r="H14" s="7" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="10" t="n"/>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>LAB03</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="inlineStr"/>
-      <c r="D15" s="7" t="inlineStr"/>
-      <c r="E15" s="7" t="inlineStr"/>
-      <c r="F15" s="7" t="inlineStr"/>
-      <c r="G15" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="H15" s="7" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="10" t="n"/>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
         </is>
       </c>
       <c r="D16" s="7" t="inlineStr"/>
@@ -7632,134 +7632,155 @@
       <c r="G16" s="7" t="inlineStr"/>
       <c r="H16" s="7" t="inlineStr"/>
     </row>
-    <row r="17" ht="60" customHeight="1">
-      <c r="A17" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
+    <row r="17">
+      <c r="A17" s="9" t="n"/>
       <c r="B17" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C17" s="7" t="inlineStr"/>
-      <c r="D17" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="E17" s="7" t="inlineStr"/>
+      <c r="D17" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="E17" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="F17" s="7" t="inlineStr"/>
       <c r="G17" s="7" t="inlineStr"/>
       <c r="H17" s="7" t="inlineStr"/>
     </row>
-    <row r="18">
-      <c r="A18" s="10" t="n"/>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B18" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C18" s="8" t="inlineStr">
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C18" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL07
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Lý thuyết)</t>
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
         </is>
       </c>
       <c r="D18" s="7" t="inlineStr"/>
       <c r="E18" s="7" t="inlineStr"/>
       <c r="F18" s="7" t="inlineStr"/>
-      <c r="G18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="H18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Lập trình cơ bản
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="G18" s="7" t="inlineStr"/>
+      <c r="H18" s="7" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" s="10" t="n"/>
+      <c r="A19" s="9" t="n"/>
       <c r="B19" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C19" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>R102</t>
+        </is>
+      </c>
+      <c r="C19" s="7" t="inlineStr"/>
       <c r="D19" s="7" t="inlineStr"/>
       <c r="E19" s="8" t="inlineStr">
         <is>
-          <t>Lớp: CL06
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
+          <t>Lớp: CL07
+Môn: Lập trình cơ bản
+GV: Lê Văn C
 (Lý thuyết)</t>
         </is>
       </c>
       <c r="F19" s="7" t="inlineStr"/>
       <c r="G19" s="7" t="inlineStr"/>
-      <c r="H19" s="7" t="inlineStr"/>
-    </row>
-    <row r="20" ht="60" customHeight="1">
-      <c r="A20" s="6" t="inlineStr">
+      <c r="H19" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="n"/>
+      <c r="B20" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C20" s="7" t="inlineStr"/>
+      <c r="D20" s="7" t="inlineStr"/>
+      <c r="E20" s="7" t="inlineStr"/>
+      <c r="F20" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G20" s="7" t="inlineStr"/>
+      <c r="H20" s="7" t="inlineStr"/>
+    </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="6" t="inlineStr">
         <is>
           <t>T2
 (19:30-21:30)</t>
         </is>
       </c>
-      <c r="B20" s="7" t="inlineStr">
-        <is>
-          <t>LAB03</t>
-        </is>
-      </c>
-      <c r="C20" s="7" t="inlineStr"/>
-      <c r="D20" s="7" t="inlineStr"/>
-      <c r="E20" s="9" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Cơ sở dữ liệu
-GV: Nguyễn Văn A
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="F20" s="7" t="inlineStr"/>
-      <c r="G20" s="7" t="inlineStr"/>
-      <c r="H20" s="7" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="10" t="n"/>
       <c r="B21" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C21" s="7" t="inlineStr"/>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C21" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Cơ sở dữ liệu
+GV: Nguyễn Văn A
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="D21" s="7" t="inlineStr"/>
       <c r="E21" s="7" t="inlineStr"/>
       <c r="F21" s="7" t="inlineStr"/>
       <c r="G21" s="7" t="inlineStr"/>
-      <c r="H21" s="8" t="inlineStr">
+      <c r="H21" s="7" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="9" t="n"/>
+      <c r="B22" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C22" s="7" t="inlineStr"/>
+      <c r="D22" s="7" t="inlineStr"/>
+      <c r="E22" s="7" t="inlineStr"/>
+      <c r="F22" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Lập trình cơ bản
+GV: Lê Văn C
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G22" s="7" t="inlineStr"/>
+      <c r="H22" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL07
 Môn: Cơ sở dữ liệu
@@ -7767,27 +7788,6 @@
 (Lý thuyết)</t>
         </is>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="10" t="n"/>
-      <c r="B22" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C22" s="7" t="inlineStr"/>
-      <c r="D22" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Lập trình cơ bản
-GV: Lê Văn C
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="E22" s="7" t="inlineStr"/>
-      <c r="F22" s="7" t="inlineStr"/>
-      <c r="G22" s="7" t="inlineStr"/>
-      <c r="H22" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
